--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 2:38 PM</t>
+    <t>Friday, 18 July, 2025 2:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -62,7 +62,7 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 2:53 PM</t>
+    <t>Friday, 18 July, 2025 3:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -62,7 +62,19 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 3:58 PM</t>
+    <t>LASIX 40MG 24 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Friday, 18 July, 2025 3:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -724,38 +736,71 @@
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13">
-        <v>16.829999999999998</v>
-      </c>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>17</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>18</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>19</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>31.829999999999998</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>21</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>22</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>23</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -769,10 +814,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -74,7 +74,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 3:59 PM</t>
+    <t>Friday, 18 July, 2025 4:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -74,7 +74,31 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 4:15 PM</t>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>Friday, 18 July, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -769,38 +793,104 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>31.829999999999998</v>
-      </c>
-      <c r="Q9" s="13"/>
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>23</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>24</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
-        <v>21</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
-        <v>22</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
         <v>23</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>66.829999999999998</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -819,10 +909,20 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
     <t>16.8300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>LASIX 40MG 24 TAB.</t>
   </si>
   <si>
@@ -98,7 +110,7 @@
     <t>20.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 4:26 PM</t>
+    <t>Friday, 18 July, 2025 4:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -811,18 +823,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -844,53 +856,86 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>66.829999999999998</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>27</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>82.670000000000002</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +964,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -86,31 +86,43 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>Friday, 18 July, 2025 4:28 PM</t>
+    <t>معجون اسنان ديبرودنت 13 مل</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Friday, 18 July, 2025 4:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -864,7 +876,7 @@
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -876,14 +888,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -893,49 +905,82 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>82.670000000000002</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>33</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>34</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>27</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>35</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>112.67</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>37</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>38</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>39</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -969,10 +1014,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -44,85 +44,406 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>141.0000</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>231.00</t>
+  </si>
+  <si>
+    <t>231.0000</t>
+  </si>
+  <si>
+    <t>BILICHOL 24 CAPS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>7:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
     <t>15.8400</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
   </si>
   <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
     <t>16.8300</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LASIX 40MG 24 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
     <t>15.0000</t>
   </si>
   <si>
+    <t>LEZBERG TRIO 40/10/25MG TAB</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>TRILEPTAL 60MG/ML ORAL SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
     <t>23:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5.00</t>
   </si>
   <si>
     <t>5.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 4:51 PM</t>
+    <t>Friday, 18 July, 2025 6:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -813,7 +1134,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -829,7 +1150,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -839,11 +1160,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -855,28 +1176,28 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>18</v>
@@ -888,28 +1209,28 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -921,66 +1242,1155 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>36</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>112.67</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c t="s" r="Q13" s="12">
         <v>39</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>41</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>42</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>44</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>45</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>46</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>47</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>49</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>50</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>51</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>13</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>55</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>57</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>58</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>59</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>61</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>62</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>63</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>25</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>66</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>68</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>69</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>71</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>72</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>73</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>76</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>77</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>29</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>63</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>81</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>25</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>13</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>69</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>83</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>25</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>13</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>84</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>86</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>76</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>13</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>87</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>90</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>25</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>91</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>94</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>96</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>76</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>97</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>99</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>25</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>46</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>100</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>13</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>103</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>105</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>50</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>13</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>87</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>13</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>108</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>110</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>25</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>13</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>111</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>76</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>13</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>114</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>116</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>25</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>13</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>117</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>119</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>25</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>13</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>120</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>122</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>76</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>13</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>123</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>125</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>16</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>13</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>126</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>128</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>129</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>46</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>130</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>132</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>25</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>46</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>133</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>136</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>25</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>46</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>137</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>139</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>25</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>46</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>140</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>141</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>45</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>46</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>142</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>2285.1399999999999</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>144</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>145</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>146</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1019,10 +2429,175 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -74,15 +74,18 @@
     <t>141.0000</t>
   </si>
   <si>
+    <t>ATOREZA 40/10MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>210.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
@@ -194,6 +197,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -332,6 +344,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -443,7 +467,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 6:30 PM</t>
+    <t>Friday, 18 July, 2025 6:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1183,7 +1207,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1193,14 +1217,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1209,14 +1233,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1226,11 +1250,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>18</v>
@@ -1242,14 +1266,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1259,11 +1283,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>18</v>
@@ -1275,14 +1299,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1292,14 +1316,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1308,14 +1332,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1325,14 +1349,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1341,28 +1365,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>18</v>
@@ -1374,28 +1398,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1407,14 +1431,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1424,14 +1448,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1440,14 +1464,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1457,11 +1481,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1473,14 +1497,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1490,11 +1514,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1506,14 +1530,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1523,11 +1547,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1539,14 +1563,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1556,11 +1580,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1572,14 +1596,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1589,11 +1613,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1605,14 +1629,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1622,11 +1646,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1638,14 +1662,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1655,11 +1679,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>18</v>
@@ -1671,14 +1695,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1688,14 +1712,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1711,7 +1735,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1721,11 +1745,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1737,14 +1761,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1754,14 +1778,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1770,14 +1794,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1787,11 +1811,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>18</v>
@@ -1803,14 +1827,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1820,14 +1844,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1836,14 +1860,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1853,14 +1877,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1869,28 +1893,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1902,14 +1926,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1919,11 +1943,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1935,31 +1959,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1968,14 +1992,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1985,14 +2009,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2001,14 +2025,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2018,11 +2042,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2051,14 +2075,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2067,14 +2091,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2084,11 +2108,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2100,14 +2124,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2117,11 +2141,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>18</v>
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2150,11 +2174,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2166,14 +2190,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2183,14 +2207,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2199,28 +2223,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2232,31 +2256,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2265,31 +2289,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2298,28 +2322,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2331,66 +2355,165 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>143</v>
       </c>
-      <c t="s" r="Q45" s="12">
-        <v>18</v>
-      </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2285.1399999999999</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
         <v>144</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>26</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>47</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>145</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>146</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c t="s" r="Q46" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>147</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>26</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>47</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>148</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>149</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>46</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>47</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>150</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2487.1399999999999</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>152</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>153</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>154</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2594,10 +2717,25 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 6:44 PM</t>
+    <t>Friday, 18 July, 2025 7:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -308,9 +317,6 @@
     <t>44.00</t>
   </si>
   <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>LASIX 40MG 24 TAB.</t>
   </si>
   <si>
@@ -329,6 +335,12 @@
     <t>53.4600</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -392,6 +404,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
   </si>
   <si>
@@ -413,9 +434,6 @@
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
     <t>16.3200</t>
   </si>
   <si>
@@ -467,7 +485,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 7:05 PM</t>
+    <t>Friday, 18 July, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1735,7 +1753,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,11 +1763,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>18</v>
@@ -1761,14 +1779,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1778,11 +1796,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>18</v>
@@ -1794,7 +1812,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1811,7 +1829,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1834,7 +1852,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1851,7 +1869,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1878,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,14 +1895,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>96</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1900,7 +1918,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1917,7 +1935,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1933,7 +1951,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1947,7 +1965,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1959,28 +1977,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1992,28 +2010,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2025,14 +2043,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,11 +2060,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>18</v>
@@ -2058,14 +2076,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2075,11 +2093,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2108,11 +2126,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>18</v>
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2159,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2175,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,11 +2192,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2190,7 +2208,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2207,11 +2225,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>18</v>
@@ -2223,14 +2241,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2240,11 +2258,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2273,11 +2291,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2306,11 +2324,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2322,28 +2340,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2355,31 +2373,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,31 +2406,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2438,11 +2456,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2454,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2471,49 +2489,148 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>150</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>26</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>47</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>151</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2487.1399999999999</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c t="s" r="Q49" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>153</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>26</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>47</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>154</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>155</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>46</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>47</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>156</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2572.8000000000002</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>158</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>159</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>160</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2732,10 +2849,25 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>MAVILOR 5MG 30 TAB.</t>
   </si>
   <si>
@@ -350,6 +359,15 @@
     <t>34.6500</t>
   </si>
   <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
@@ -359,9 +377,6 @@
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>114.00</t>
   </si>
   <si>
@@ -431,6 +446,12 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -455,10 +476,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -485,7 +503,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 7:28 PM</t>
+    <t>Friday, 18 July, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2083,7 +2101,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,7 +2111,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2116,7 +2134,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,14 +2144,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2142,14 +2160,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2166,7 +2184,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2182,7 +2200,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2192,11 +2210,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>18</v>
@@ -2208,14 +2226,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2225,14 +2243,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2241,14 +2259,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,11 +2276,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>18</v>
@@ -2274,7 +2292,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2291,11 +2309,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>18</v>
@@ -2307,14 +2325,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2324,14 +2342,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2340,7 +2358,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2357,11 +2375,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>18</v>
@@ -2373,14 +2391,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,14 +2408,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2406,14 +2424,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,14 +2441,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2446,21 +2464,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>18</v>
@@ -2472,31 +2490,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2505,31 +2523,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,14 +2556,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2555,11 +2573,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>18</v>
@@ -2571,14 +2589,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2588,49 +2606,148 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>156</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>26</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>47</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
         <v>157</v>
       </c>
-      <c t="s" r="Q51" s="12">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2572.8000000000002</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
         <v>158</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c t="s" r="Q52" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>159</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>26</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>47</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
         <v>160</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>161</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>46</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>47</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>162</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2717.9899999999998</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>164</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>165</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>166</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2864,10 +2981,25 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMINOLEBAN I.V. INFUSION 500 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>183.00</t>
+  </si>
+  <si>
+    <t>183.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>1:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
@@ -63,9 +75,6 @@
   </si>
   <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>141.00</t>
@@ -1161,7 +1170,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1170,14 +1179,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1187,14 +1196,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1210,7 +1219,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1227,7 +1236,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1243,7 +1252,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1253,14 +1262,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1269,14 +1278,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1286,14 +1295,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1302,14 +1311,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1319,14 +1328,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1335,14 +1344,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1359,7 +1368,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1375,7 +1384,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1385,14 +1394,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1401,14 +1410,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1418,14 +1427,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1434,31 +1443,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1467,31 +1476,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1500,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1517,14 +1526,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1533,14 +1542,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1550,14 +1559,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1566,14 +1575,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1590,7 +1599,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1606,7 +1615,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1616,14 +1625,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,14 +1641,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1656,7 +1665,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1672,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1689,7 +1698,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1705,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1715,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1731,14 +1740,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1748,14 +1757,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1764,14 +1773,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1788,7 +1797,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1804,7 +1813,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1814,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1830,14 +1839,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1903,7 +1912,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1920,7 +1929,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>96</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>99</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1969,7 +1978,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1983,10 +1992,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1995,14 +2004,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2012,14 +2021,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2035,13 +2044,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2052,7 +2061,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2068,24 +2077,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2111,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2134,7 +2143,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2144,14 +2153,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2167,7 +2176,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2184,7 +2193,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2200,7 +2209,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2226,14 +2235,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2266,7 +2275,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2283,7 +2292,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2299,7 +2308,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2316,7 +2325,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2332,7 +2341,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2349,7 +2358,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2365,7 +2374,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2382,7 +2391,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2398,7 +2407,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2415,7 +2424,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2431,7 +2440,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2448,7 +2457,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2464,7 +2473,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2481,7 +2490,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2497,7 +2506,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2523,14 +2532,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2556,31 +2565,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2589,20 +2598,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2610,10 +2619,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2629,13 +2638,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2643,10 +2652,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>158</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2662,13 +2671,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2676,10 +2685,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>104</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2688,66 +2697,99 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2717.9899999999998</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>164</v>
       </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>49</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>50</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>165</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
         <v>166</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2900.9899999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>167</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>168</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>169</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2996,10 +3038,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -512,7 +512,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 7:29 PM</t>
+    <t>Friday, 18 July, 2025 7:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -269,6 +269,15 @@
     <t>17.0000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -401,6 +410,15 @@
     <t>68.0000</t>
   </si>
   <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -455,6 +473,15 @@
     <t>160.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -512,7 +539,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 7:36 PM</t>
+    <t>Friday, 18 July, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1813,7 +1840,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1830,7 +1857,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1846,7 +1873,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1856,11 +1883,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1872,14 +1899,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1889,11 +1916,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>12</v>
@@ -1905,7 +1932,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1922,7 +1949,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1945,7 +1972,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1962,7 +1989,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>99</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1971,14 +1998,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1988,14 +2015,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>101</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>102</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2011,7 +2038,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2025,10 +2052,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2037,14 +2064,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2054,11 +2081,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>20</v>
@@ -2077,13 +2104,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2116,18 +2143,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2136,14 +2163,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,14 +2180,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2176,7 +2203,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2186,7 +2213,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2209,7 +2236,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2226,7 +2253,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2242,7 +2269,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,11 +2279,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2268,14 +2295,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2285,14 +2312,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2308,7 +2335,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2325,7 +2352,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2341,7 +2368,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2374,7 +2401,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2440,7 +2467,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2457,7 +2484,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2506,7 +2533,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2523,7 +2550,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2539,7 +2566,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,14 +2576,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,14 +2592,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2582,14 +2609,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,28 +2625,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2631,31 +2658,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2671,24 +2698,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2697,14 +2724,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2718,7 +2745,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2730,14 +2757,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2747,49 +2774,148 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2900.9899999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>167</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>168</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>29</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>50</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
         <v>169</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>171</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>29</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>50</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>172</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>173</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>49</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>50</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>174</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3056.4299999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>176</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>177</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>178</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3043,10 +3169,25 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -539,7 +539,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 7:43 PM</t>
+    <t>Friday, 18 July, 2025 7:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -227,6 +239,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -302,12 +323,6 @@
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -362,9 +377,6 @@
     <t>LIVABION 6 I.M. AMP. 2 ML</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>15.3600</t>
   </si>
   <si>
@@ -494,6 +506,15 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>بودره نلج اكياس</t>
   </si>
   <si>
@@ -506,6 +527,9 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -539,7 +563,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 7:56 PM</t>
+    <t>Friday, 18 July, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1642,7 +1666,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1652,14 +1676,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1668,14 +1692,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1692,7 +1716,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1708,7 +1732,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1718,14 +1742,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1734,14 +1758,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1751,14 +1775,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1767,14 +1791,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1807,7 +1831,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1817,11 +1841,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -1833,14 +1857,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1857,7 +1881,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1873,7 +1897,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1883,14 +1907,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1899,14 +1923,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1916,14 +1940,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1932,14 +1956,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1949,11 +1973,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1965,14 +1989,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1982,11 +2006,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1998,14 +2022,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2015,14 +2039,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2048,11 +2072,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2064,14 +2088,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2081,14 +2105,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2104,7 +2128,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2121,7 +2145,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2137,13 +2161,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2151,7 +2175,7 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>20</v>
@@ -2163,14 +2187,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2180,14 +2204,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2203,17 +2227,17 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2236,7 +2260,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2246,14 +2270,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2262,14 +2286,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2279,14 +2303,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2295,14 +2319,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2312,14 +2336,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2328,14 +2352,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2345,14 +2369,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2361,14 +2385,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2378,11 +2402,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2394,14 +2418,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2411,14 +2435,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2427,14 +2451,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2444,11 +2468,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2460,14 +2484,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2477,11 +2501,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2493,7 +2517,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2510,11 +2534,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2526,14 +2550,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2543,14 +2567,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2559,7 +2583,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2576,11 +2600,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2592,14 +2616,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2609,14 +2633,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2625,14 +2649,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2642,11 +2666,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2658,14 +2682,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2675,14 +2699,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2691,14 +2715,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2708,14 +2732,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2737,18 +2761,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2757,31 +2781,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>91</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2790,14 +2814,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2807,11 +2831,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2823,14 +2847,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>169</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2840,11 +2864,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2856,14 +2880,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2873,49 +2897,181 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>173</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>29</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>50</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>174</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>175</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3056.4299999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>176</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>29</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>50</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>177</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>178</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>179</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>29</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>50</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>180</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>181</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>49</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>50</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>182</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>3258.4299999999998</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>184</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>185</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>186</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3184,10 +3340,30 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -431,6 +431,15 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>OUT POWER GOLD SPRAY</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -563,7 +572,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 8:31 PM</t>
+    <t>Friday, 18 July, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2530,7 +2539,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2557,7 +2566,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2590,7 +2599,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2623,7 +2632,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2640,7 +2649,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2656,7 +2665,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2673,7 +2682,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2689,7 +2698,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2722,7 +2731,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2755,7 +2764,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2798,11 +2807,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>20</v>
@@ -2814,31 +2823,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2854,7 +2863,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>49</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2897,11 +2906,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2913,14 +2922,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2967,10 +2976,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>178</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3000,7 +3009,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3012,14 +3021,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3029,49 +3038,82 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>3258.4299999999998</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
         <v>184</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>49</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>50</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
         <v>185</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
         <v>186</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c t="s" r="Q63" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3343.4299999999998</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>187</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>188</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>189</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3360,10 +3402,15 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -182,6 +182,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -206,12 +215,21 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -431,6 +449,15 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>OUT POWER GOLD SPRAY</t>
   </si>
   <si>
@@ -449,6 +476,24 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -467,6 +512,15 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -572,7 +626,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 8:32 PM</t>
+    <t>Friday, 18 July, 2025 8:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1609,7 +1663,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1619,11 +1673,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>20</v>
@@ -1635,14 +1689,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1652,11 +1706,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>20</v>
@@ -1668,14 +1722,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1685,11 +1739,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>20</v>
@@ -1701,14 +1755,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1725,7 +1779,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1741,7 +1795,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1751,11 +1805,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>20</v>
@@ -1767,14 +1821,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1784,11 +1838,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -1800,14 +1854,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1824,7 +1878,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1840,7 +1894,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1857,7 +1911,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1873,7 +1927,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1883,11 +1937,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1899,14 +1953,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1916,11 +1970,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>20</v>
@@ -1932,14 +1986,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1949,14 +2003,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1965,14 +2019,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1989,7 +2043,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2005,7 +2059,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2015,14 +2069,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2031,14 +2085,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2048,11 +2102,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>12</v>
@@ -2064,14 +2118,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2081,11 +2135,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2097,14 +2151,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2114,14 +2168,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2130,7 +2184,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2147,11 +2201,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2163,14 +2217,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2180,14 +2234,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2196,14 +2250,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2213,14 +2267,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2229,28 +2283,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>20</v>
@@ -2269,7 +2323,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2279,14 +2333,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2295,28 +2349,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2328,14 +2382,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2345,14 +2399,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2361,14 +2415,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2378,14 +2432,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2401,7 +2455,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2411,14 +2465,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2427,14 +2481,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2444,14 +2498,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2460,14 +2514,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2477,7 +2531,7 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2500,7 +2554,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2517,7 +2571,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2533,13 +2587,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2566,7 +2620,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2599,7 +2653,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2616,7 +2670,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2638,7 +2692,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2665,7 +2719,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2682,7 +2736,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2698,7 +2752,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2731,7 +2785,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2764,7 +2818,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2797,7 +2851,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2807,14 +2861,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2823,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2840,14 +2894,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2856,31 +2910,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2889,28 +2943,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2922,28 +2976,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -2955,31 +3009,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2988,31 +3042,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3021,31 +3075,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3054,7 +3108,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3071,49 +3125,247 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3343.4299999999998</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
-        <v>187</v>
-      </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
-        <v>188</v>
-      </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>189</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>190</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>50</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>191</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>33</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>50</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>162</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>194</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>29</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>50</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>195</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>29</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>50</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>198</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>29</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>50</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>202</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>49</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>50</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>203</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>204</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3631.4200000000001</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>205</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>206</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>207</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3407,10 +3659,40 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -626,7 +626,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 8:39 PM</t>
+    <t>Friday, 18 July, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>IMUTREXATE 2.5 MG 10 TABS.</t>
   </si>
   <si>
@@ -512,6 +521,12 @@
     <t>67.0000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
   </si>
   <si>
@@ -521,6 +536,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -626,7 +650,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 8:42 PM</t>
+    <t>Friday, 18 July, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2158,7 +2182,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2168,14 +2192,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,7 +2208,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2201,11 +2225,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,14 +2274,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>116</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2290,7 +2314,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2304,10 +2328,10 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2316,14 +2340,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,11 +2357,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>20</v>
@@ -2356,13 +2380,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2395,18 +2419,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2415,14 +2439,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2465,7 +2489,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2488,7 +2512,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2505,7 +2529,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2521,7 +2545,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,11 +2555,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2547,14 +2571,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,14 +2588,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2604,7 +2628,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2653,7 +2677,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2670,7 +2694,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2686,13 +2710,13 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2703,7 +2727,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2725,7 +2749,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2752,7 +2776,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2785,7 +2809,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2818,7 +2842,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2851,7 +2875,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2917,7 +2941,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2927,14 +2951,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,7 +2967,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2960,11 +2984,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2976,7 +3000,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,14 +3066,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3059,14 +3083,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>89</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3082,7 +3106,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3092,14 +3116,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,28 +3132,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3141,31 +3165,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>89</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,31 +3198,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3214,7 +3238,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3228,10 +3252,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>104</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>196</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3247,7 +3271,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>29</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3257,11 +3281,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3273,14 +3297,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3290,11 +3314,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3313,7 +3337,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3327,45 +3351,144 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>204</v>
       </c>
-      <c t="s" r="Q69" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3631.4200000000001</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>205</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>29</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>50</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
         <v>206</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
         <v>207</v>
       </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c t="s" r="Q70" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>29</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>50</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>209</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>49</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>50</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>211</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>3752.6950000000002</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>213</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>214</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>215</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3689,10 +3812,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -266,6 +266,12 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -503,6 +509,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>SANSOVIT PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -581,6 +596,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -650,7 +674,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 8:43 PM</t>
+    <t>Friday, 18 July, 2025 8:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1961,11 +1985,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1977,14 +2001,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1994,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2010,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2027,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2043,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2060,14 +2084,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2076,14 +2100,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2093,11 +2117,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2109,14 +2133,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2126,14 +2150,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2142,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2159,7 +2183,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2182,7 +2206,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2192,14 +2216,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2208,14 +2232,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2225,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2258,11 +2282,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>116</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2324,14 +2348,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2357,14 +2381,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2380,7 +2404,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2394,7 +2418,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>20</v>
@@ -2406,28 +2430,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>20</v>
@@ -2439,7 +2463,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2452,18 +2476,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2479,7 +2503,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2512,7 +2536,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2522,11 +2546,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>20</v>
@@ -2538,14 +2562,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2555,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2571,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2588,7 +2612,7 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
@@ -2611,7 +2635,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2621,14 +2645,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2637,14 +2661,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2654,14 +2678,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2670,7 +2694,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2687,11 +2711,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2703,14 +2727,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2720,14 +2744,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2736,31 +2760,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2769,7 +2793,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2782,15 +2806,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2802,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2819,11 +2843,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2835,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2852,11 +2876,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2868,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2885,11 +2909,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2901,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2918,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2934,14 +2958,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2951,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3007,7 +3031,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3017,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>18</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3033,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3050,14 +3074,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3066,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3083,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3099,14 +3123,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3116,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3132,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3149,11 +3173,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3165,14 +3189,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3182,14 +3206,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3205,7 +3229,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3215,14 +3239,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3231,31 +3255,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3264,31 +3288,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3297,31 +3321,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3337,7 +3361,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3351,10 +3375,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>204</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3370,7 +3394,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>29</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3380,11 +3404,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3396,14 +3420,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3413,11 +3437,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3436,7 +3460,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3450,45 +3474,144 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>212</v>
       </c>
-      <c t="s" r="Q72" s="12">
-        <v>12</v>
-      </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>3752.6950000000002</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>213</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>29</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>50</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
         <v>214</v>
       </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>215</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>216</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>29</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>50</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>217</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>218</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>49</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>50</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>219</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>220</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>3930.4549999999999</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
+        <v>221</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
+        <v>222</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>223</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3827,10 +3950,25 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -431,12 +431,33 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
     <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>MUCOSTA 100MG 20 TAB</t>
   </si>
   <si>
@@ -674,7 +695,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 8:52 PM</t>
+    <t>Friday, 18 July, 2025 9:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2635,7 +2656,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2645,14 +2666,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2661,14 +2682,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2701,7 +2722,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2711,14 +2732,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2760,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2777,14 +2798,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2793,28 +2814,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2843,14 +2864,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2859,28 +2880,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2892,7 +2913,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2909,11 +2930,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2925,14 +2946,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2942,14 +2963,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2975,11 +2996,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3041,14 +3062,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3057,7 +3078,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3074,11 +3095,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3090,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,14 +3161,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3156,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3239,11 +3260,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3288,14 +3309,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3338,14 +3359,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3354,31 +3375,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3387,31 +3408,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3427,7 +3448,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3437,11 +3458,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3453,14 +3474,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3470,14 +3491,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>212</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3503,11 +3524,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3519,7 +3540,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3536,14 +3557,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3552,14 +3573,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3569,49 +3590,115 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>3930.4549999999999</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
-        <v>221</v>
-      </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
-        <v>222</v>
-      </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>223</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>29</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>50</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>224</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>49</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>50</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>226</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>227</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4035.665</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>228</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>229</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>230</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3965,10 +4052,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -44,15 +44,45 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>3FLY 300 TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
     <t>AMINOLEBAN I.V. INFUSION 500 ML</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>183.00</t>
   </si>
   <si>
@@ -71,9 +101,6 @@
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -98,9 +125,6 @@
     <t>AVEROZOLID 600MG 10 F.C.TABLETS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>231.00</t>
   </si>
   <si>
@@ -161,9 +185,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -173,9 +194,6 @@
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>117.00</t>
   </si>
   <si>
@@ -485,6 +503,12 @@
     <t>71.0000</t>
   </si>
   <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -503,6 +527,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -518,9 +548,6 @@
     <t>24.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -584,12 +611,6 @@
     <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
     <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
   </si>
   <si>
@@ -695,7 +716,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 9:01 PM</t>
+    <t>Friday, 18 July, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1353,7 +1374,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1362,31 +1383,31 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1395,31 +1416,31 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1428,31 +1449,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1461,31 +1482,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1494,31 +1515,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1527,20 +1548,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1551,7 +1572,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1560,31 +1581,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1593,31 +1614,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1633,24 +1654,24 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1659,31 +1680,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1692,31 +1713,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1749,7 +1770,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1765,24 +1786,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1791,31 +1812,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1824,31 +1845,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1857,31 +1878,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1890,20 +1911,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1914,7 +1935,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1930,24 +1951,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1956,31 +1977,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1989,31 +2010,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2022,31 +2043,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,7 +2076,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2068,18 +2089,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2095,24 +2116,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2121,31 +2142,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2154,31 +2175,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2187,20 +2208,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2211,7 +2232,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2227,24 +2248,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,31 +2274,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2286,31 +2307,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2319,31 +2340,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2352,31 +2373,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>118</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2385,31 +2406,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,31 +2439,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2451,31 +2472,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2484,31 +2505,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2524,24 +2545,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2583,31 +2604,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,31 +2637,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2656,13 +2677,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2673,7 +2694,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2689,24 +2710,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2715,20 +2736,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2739,7 +2760,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2755,24 +2776,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,20 +2802,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2805,7 +2826,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2821,13 +2842,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2838,7 +2859,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2854,13 +2875,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2871,7 +2892,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2887,13 +2908,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2904,7 +2925,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2920,24 +2941,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2946,31 +2967,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +3000,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3017,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,31 +3033,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,31 +3066,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,31 +3099,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,31 +3132,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,31 +3165,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3177,31 +3198,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,7 +3231,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3223,18 +3244,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,31 +3264,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,31 +3297,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3309,31 +3330,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,31 +3363,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>20</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,31 +3396,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,31 +3429,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,31 +3462,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,31 +3495,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,31 +3528,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3540,31 +3561,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,31 +3594,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,31 +3627,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,66 +3660,198 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>224</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>13</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>225</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>227</v>
       </c>
-      <c t="s" r="Q77" s="12">
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4035.665</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>13</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>228</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>229</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c t="s" r="Q79" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>230</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>12</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>13</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>231</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>232</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>57</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>13</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>233</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4186.3249999999998</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>235</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>236</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>237</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4062,10 +4215,30 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -356,6 +356,15 @@
     <t>48.0000</t>
   </si>
   <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>HEPAMARIN 140MG 30 CAPSULE</t>
   </si>
   <si>
@@ -521,12 +530,6 @@
     <t>OUT POWER GOLD SPRAY</t>
   </si>
   <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -683,6 +686,18 @@
     <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
   </si>
   <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -716,7 +731,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 9:14 PM</t>
+    <t>Friday, 18 July, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2347,7 +2362,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2364,7 +2379,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2380,7 +2395,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,14 +2405,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2406,7 +2421,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2423,11 +2438,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>23</v>
@@ -2439,14 +2454,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>127</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2512,7 +2527,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2526,10 +2541,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,11 +2570,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2578,13 +2593,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2617,18 +2632,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,14 +2652,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2670,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,7 +2702,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2710,7 +2725,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2727,7 +2742,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2760,7 +2775,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2776,7 +2791,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2802,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2819,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2875,7 +2890,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2892,7 +2907,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2951,14 +2966,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>86</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +2982,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,7 +2999,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3007,13 +3022,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3024,7 +3039,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3040,24 +3055,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,11 +3164,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3165,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>49</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,11 +3263,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3264,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>28</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3297,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,14 +3329,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3330,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3380,11 +3395,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>20</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>21</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3403,7 +3418,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3413,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3446,11 +3461,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>23</v>
@@ -3462,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3479,11 +3494,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>23</v>
@@ -3495,7 +3510,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3512,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,14 +3543,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3545,14 +3560,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3578,11 +3593,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3594,31 +3609,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>20</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3644,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>41</v>
+        <v>221</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3677,11 +3692,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>23</v>
@@ -3700,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>226</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,14 +3741,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3743,11 +3758,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3759,7 +3774,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3776,14 +3791,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3799,7 +3814,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3820,38 +3835,104 @@
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4186.3249999999998</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>235</v>
       </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>12</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>13</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
         <v>236</v>
       </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>237</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>57</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>13</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>238</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4296.3249999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>240</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>241</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>242</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4235,10 +4316,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -410,6 +410,9 @@
     <t>44.00</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
     <t>LASIX 40MG 24 TAB.</t>
   </si>
   <si>
@@ -494,6 +497,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
     <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
   </si>
   <si>
@@ -722,16 +734,19 @@
     <t>15.00</t>
   </si>
   <si>
+    <t>كريم هيمالايا</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Friday, 18 July, 2025 9:18 PM</t>
+    <t>Friday, 18 July, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2593,7 +2608,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2618,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,28 +2634,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2652,7 +2667,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2665,18 +2680,18 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,11 +2750,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,7 +2799,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2801,14 +2816,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2882,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,11 +2915,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,14 +2948,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,11 +2981,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>23</v>
@@ -2982,7 +2997,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2999,14 +3014,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3048,31 +3063,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3088,7 +3103,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3102,7 +3117,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3114,7 +3129,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3127,15 +3142,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>23</v>
@@ -3147,14 +3162,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,7 +3195,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3197,11 +3212,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>49</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,11 +3278,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>49</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,14 +3344,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,7 +3360,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3362,11 +3377,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3410,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3443,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3451,7 +3466,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3468,7 +3483,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3484,7 +3499,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3509,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3527,11 +3542,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>23</v>
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,14 +3608,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>97</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>98</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3649,24 +3664,24 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>57</v>
+        <v>218</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3675,31 +3690,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3708,14 +3723,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,11 +3740,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>23</v>
@@ -3741,14 +3756,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,11 +3773,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,14 +3806,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>231</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3807,14 +3822,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3839,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3840,7 +3855,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>235</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3873,14 +3888,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,49 +3905,148 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>238</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>239</v>
       </c>
-      <c t="s" r="Q83" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4296.3249999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>12</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>13</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
         <v>240</v>
       </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>241</v>
       </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>23</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>13</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
         <v>242</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>244</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>57</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>13</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>242</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4619.3249999999998</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>246</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>247</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4326,10 +4440,25 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -92,13 +92,13 @@
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>1:4</t>
   </si>
   <si>
     <t>78.00</t>
   </si>
   <si>
-    <t>12.4800</t>
+    <t>24.9600</t>
   </si>
   <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
@@ -209,6 +209,18 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -566,12 +578,6 @@
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
@@ -716,7 +722,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -746,7 +752,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 9:29 PM</t>
+    <t>Friday, 18 July, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1503,7 +1509,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1899,7 +1905,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1981,7 +1987,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1991,11 +1997,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2007,14 +2013,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2024,14 +2030,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2040,14 +2046,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2064,7 +2070,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2080,7 +2086,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,14 +2096,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2106,14 +2112,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,11 +2129,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>23</v>
@@ -2139,7 +2145,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2156,11 +2162,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>23</v>
@@ -2172,14 +2178,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2189,14 +2195,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2205,14 +2211,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2229,7 +2235,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2262,7 +2268,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2278,7 +2284,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2288,11 +2294,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2304,14 +2310,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,14 +2327,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2337,14 +2343,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2354,11 +2360,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>23</v>
@@ -2370,14 +2376,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2387,11 +2393,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>23</v>
@@ -2403,14 +2409,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,14 +2426,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2436,14 +2442,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,14 +2459,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2469,7 +2475,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2486,11 +2492,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2502,14 +2508,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,14 +2525,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2542,7 +2548,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2559,7 +2565,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2568,14 +2574,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2585,14 +2591,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2601,14 +2607,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,14 +2624,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2634,14 +2640,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2651,14 +2657,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2667,28 +2673,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2700,7 +2706,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2713,18 +2719,18 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2733,14 +2739,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,14 +2756,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2766,14 +2772,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,11 +2789,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2799,14 +2805,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,14 +2822,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,7 +2838,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2849,14 +2855,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2865,14 +2871,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,14 +2888,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2898,14 +2904,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,14 +2921,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2938,7 +2944,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,11 +2954,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2964,14 +2970,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,14 +2987,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2997,14 +3003,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,11 +3020,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>23</v>
@@ -3030,7 +3036,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3047,11 +3053,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>23</v>
@@ -3063,7 +3069,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3080,14 +3086,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3102,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,11 +3119,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3129,31 +3135,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,31 +3168,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>120</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3195,14 +3201,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3218,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,14 +3234,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3245,11 +3251,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>23</v>
@@ -3261,14 +3267,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3278,11 +3284,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>23</v>
@@ -3294,14 +3300,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3317,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3333,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3350,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3366,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,11 +3383,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>23</v>
@@ -3393,14 +3399,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,14 +3416,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3433,7 +3439,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3443,14 +3449,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>28</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3459,14 +3465,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3482,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3492,14 +3498,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,11 +3515,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>21</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3525,14 +3531,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,14 +3548,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>20</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3558,14 +3564,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,11 +3581,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3591,14 +3597,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3608,11 +3614,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>23</v>
@@ -3624,7 +3630,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3641,14 +3647,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,14 +3663,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3674,14 +3680,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>98</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3697,7 +3703,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3707,11 +3713,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3730,24 +3736,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>20</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3756,14 +3762,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>57</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3773,11 +3779,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>23</v>
@@ -3789,14 +3795,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3806,11 +3812,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>23</v>
@@ -3822,14 +3828,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3839,11 +3845,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>23</v>
@@ -3855,14 +3861,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3872,14 +3878,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>235</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3888,7 +3894,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3905,14 +3911,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,7 +3927,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3938,11 +3944,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>23</v>
@@ -3961,7 +3967,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3975,7 +3981,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>23</v>
@@ -3987,14 +3993,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4004,49 +4010,82 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4619.3249999999998</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>246</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>57</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>13</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>244</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>246</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
+      <c t="s" r="Q87" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4666.8050000000003</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
         <v>247</v>
       </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>248</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>249</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4455,10 +4494,15 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -62,15 +62,27 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ACRO CREAM 75 GM</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>66.95</t>
+  </si>
+  <si>
+    <t>66.9500</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -80,9 +92,6 @@
     <t>AMINOLEBAN I.V. INFUSION 500 ML</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>183.00</t>
   </si>
   <si>
@@ -200,6 +209,15 @@
     <t>117.0000</t>
   </si>
   <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -209,6 +227,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -263,9 +290,6 @@
     <t>70.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
@@ -320,6 +344,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>FAST CARE-D SHAMPOO 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -392,6 +425,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -581,9 +623,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -743,16 +782,10 @@
     <t>كريم هيمالايا</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 9:32 PM</t>
+    <t>Friday, 18 July, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,24 +1459,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1465,7 +1498,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1476,7 +1509,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1492,24 +1525,24 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1518,20 +1551,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1558,13 +1591,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1575,7 +1608,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1591,21 +1624,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1617,31 +1650,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1657,24 +1690,24 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1683,20 +1716,20 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1707,7 +1740,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1723,24 +1756,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1749,31 +1782,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>23</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1782,31 +1815,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1815,20 +1848,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1839,7 +1872,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1855,13 +1888,13 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1872,7 +1905,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1888,24 +1921,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1914,28 +1947,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1947,31 +1980,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1980,31 +2013,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2013,28 +2046,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2046,31 +2079,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2079,28 +2112,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2112,31 +2145,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2145,31 +2178,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2178,20 +2211,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2202,7 +2235,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2218,13 +2251,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2235,7 +2268,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2251,24 +2284,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>31</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2277,31 +2310,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2310,28 +2343,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2343,31 +2376,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2376,31 +2409,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2409,20 +2442,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2433,7 +2466,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2449,13 +2482,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2482,24 +2515,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2508,31 +2541,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2541,31 +2574,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>131</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2574,31 +2607,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2607,31 +2640,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2640,31 +2673,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2673,31 +2706,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2706,31 +2739,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2739,7 +2772,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2752,18 +2785,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2772,28 +2805,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2805,31 +2838,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2838,31 +2871,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2871,7 +2904,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2884,15 +2917,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2904,31 +2937,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2937,28 +2970,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2970,28 +3003,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3003,31 +3036,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3036,31 +3069,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3069,7 +3102,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3082,18 +3115,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3102,24 +3135,24 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3142,13 +3175,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3175,24 +3208,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3201,31 +3234,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3234,31 +3267,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3267,31 +3300,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3300,31 +3333,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3333,31 +3366,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3366,31 +3399,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3399,7 +3432,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3412,18 +3445,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3432,31 +3465,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>28</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3465,7 +3498,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3478,18 +3511,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3505,21 +3538,21 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3531,31 +3564,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3564,7 +3597,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3577,18 +3610,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3597,24 +3630,24 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>31</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3637,13 +3670,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3654,7 +3687,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3670,13 +3703,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3687,7 +3720,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3703,21 +3736,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3729,31 +3762,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3769,13 +3802,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3786,7 +3819,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3802,24 +3835,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3828,31 +3861,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3861,31 +3894,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>109</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3894,31 +3927,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3927,14 +3960,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3944,14 +3977,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3960,14 +3993,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3977,14 +4010,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4000,7 +4033,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4010,14 +4043,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4026,14 +4059,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4043,49 +4076,214 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4666.8050000000003</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
-        <v>247</v>
-      </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
         <v>248</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>13</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
         <v>249</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>13</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>252</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>12</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>13</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>255</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>256</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>21</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>13</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>112</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>257</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>60</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>13</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>112</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5030.7550000000001</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>258</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>259</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>260</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4499,10 +4697,35 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -710,7 +710,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:3</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -740,6 +740,15 @@
     <t>5.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
   </si>
   <si>
@@ -761,7 +770,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -770,22 +782,19 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>كريم هيمالايا</t>
   </si>
   <si>
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 9:58 PM</t>
+    <t>Friday, 18 July, 2025 10:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3915,10 +3924,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4033,7 +4042,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4043,11 +4052,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4059,14 +4068,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4076,11 +4085,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4092,14 +4101,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4113,10 +4122,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>250</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,7 +4158,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4158,7 +4167,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4175,14 +4184,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4191,14 +4200,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4208,11 +4217,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4224,14 +4233,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4252,38 +4261,71 @@
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5030.7550000000001</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>258</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>259</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>260</v>
       </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>60</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>13</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>112</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5069.585</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>261</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>262</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>263</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4722,10 +4764,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -794,7 +794,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:11 PM</t>
+    <t>Friday, 18 July, 2025 10:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -617,6 +617,18 @@
     <t>24.00</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>RISPADEX 1MG/ML SYRUP 100ML</t>
   </si>
   <si>
@@ -794,7 +806,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:13 PM</t>
+    <t>Friday, 18 July, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3514,7 +3526,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3524,14 +3536,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3540,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3557,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3573,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3590,14 +3602,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3606,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3623,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3639,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3656,14 +3668,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>31</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3672,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3689,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3705,14 +3717,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3722,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3738,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3755,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3771,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3788,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>24</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3804,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3821,11 +3833,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3837,14 +3849,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3854,11 +3866,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3870,7 +3882,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3887,14 +3899,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3903,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3920,14 +3932,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3936,14 +3948,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3953,14 +3965,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3969,31 +3981,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4002,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4056,7 +4068,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4068,14 +4080,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4085,11 +4097,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4101,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4118,11 +4130,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4141,7 +4153,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4151,14 +4163,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,7 +4203,7 @@
         <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>119</v>
+        <v>258</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4200,7 +4212,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4217,14 +4229,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>154</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4233,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4250,11 +4262,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4266,14 +4278,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4294,38 +4306,71 @@
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5069.585</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>261</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>262</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>263</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>264</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>60</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>13</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>112</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5076.3050000000003</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>265</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>266</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>267</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4769,10 +4814,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -188,6 +188,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -197,9 +206,6 @@
     <t>12.00</t>
   </si>
   <si>
-    <t>12.0000</t>
-  </si>
-  <si>
     <t>CLATEX 75MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -612,9 +618,6 @@
   </si>
   <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
   </si>
   <si>
     <t>RANI-F 20MG 6 SACHETS</t>
@@ -1876,24 +1879,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1902,20 +1905,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1923,7 +1926,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1935,14 +1938,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1952,14 +1955,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1968,14 +1971,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2001,14 +2004,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2018,14 +2021,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2034,14 +2037,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2051,11 +2054,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -2067,14 +2070,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2084,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2100,14 +2103,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2117,11 +2120,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2133,14 +2136,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2150,11 +2153,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2166,14 +2169,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2183,14 +2186,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2206,7 +2209,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2220,10 +2223,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2232,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2249,14 +2252,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2265,14 +2268,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2282,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2298,14 +2301,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2315,7 +2318,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2348,11 +2351,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2364,14 +2367,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2381,14 +2384,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2397,14 +2400,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2414,14 +2417,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2430,14 +2433,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2447,11 +2450,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2463,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,14 +2483,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2496,14 +2499,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2562,14 +2565,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,7 +2582,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2602,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,11 +2615,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2648,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2664,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,14 +2681,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2701,7 +2704,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,11 +2714,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2727,14 +2730,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,11 +2747,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2760,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2793,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2813,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2826,14 +2829,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2846,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2866,7 +2869,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,14 +2879,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2895,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,28 +2928,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2958,7 +2961,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2971,18 +2974,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2998,7 +3001,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3031,7 +3034,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3041,11 +3044,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3077,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,7 +3093,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3107,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3163,7 +3166,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3222,14 +3225,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3258,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,11 +3275,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3288,7 +3291,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3305,11 +3308,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3321,7 +3324,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3338,14 +3341,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3361,7 +3364,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,11 +3374,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3387,31 +3390,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,31 +3423,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,7 +3463,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3474,10 +3477,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3486,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3526,7 +3529,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3592,7 +3595,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,14 +3605,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,14 +3638,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>52</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3651,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3671,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3684,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3704,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3737,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3786,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,11 +3803,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3823,7 +3826,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>24</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,11 +3869,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3882,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,11 +3902,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3915,7 +3918,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3932,14 +3935,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,14 +3968,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>25</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,31 +4017,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4067,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4080,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,11 +4100,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4113,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4153,7 +4156,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4179,14 +4182,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,14 +4199,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>258</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,7 +4215,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>119</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,7 +4248,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4262,14 +4265,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>154</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4285,7 +4288,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4318,7 +4321,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,49 +4331,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5076.3050000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>265</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>63</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>13</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>114</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5088.3050000000003</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>266</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
         <v>267</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>268</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4819,10 +4855,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:16 PM</t>
+    <t>Friday, 18 July, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -308,15 +308,12 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:1</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -725,7 +722,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>50.4900</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -785,10 +785,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -809,7 +806,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:17 PM</t>
+    <t>Friday, 18 July, 2025 10:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2289,10 +2286,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2301,7 +2298,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2318,11 +2315,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2334,7 +2331,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2355,7 +2352,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2367,7 +2364,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2384,11 +2381,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2400,7 +2397,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2417,11 +2414,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2433,7 +2430,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2450,11 +2447,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2466,14 +2463,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2483,11 +2480,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2499,14 +2496,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,11 +2513,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2532,7 +2529,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2549,11 +2546,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2565,7 +2562,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2582,11 +2579,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2598,7 +2595,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2619,7 +2616,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2631,7 +2628,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2648,11 +2645,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2664,7 +2661,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2681,11 +2678,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2697,7 +2694,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2714,11 +2711,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2730,14 +2727,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2747,11 +2744,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2763,7 +2760,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2780,11 +2777,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2796,14 +2793,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2813,14 +2810,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>146</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>147</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,7 +2826,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2846,11 +2843,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2862,7 +2859,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2879,11 +2876,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2895,7 +2892,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2912,11 +2909,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2928,14 +2925,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,11 +2942,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2961,7 +2958,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2978,11 +2975,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2994,7 +2991,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3011,11 +3008,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3027,7 +3024,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3044,11 +3041,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3060,7 +3057,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3077,11 +3074,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3093,7 +3090,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3110,11 +3107,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3126,7 +3123,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3143,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3159,7 +3156,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3176,11 +3173,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3192,14 +3189,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,11 +3206,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3225,7 +3222,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3242,11 +3239,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3258,7 +3255,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3275,11 +3272,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3291,7 +3288,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3308,11 +3305,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3324,7 +3321,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3341,11 +3338,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3357,7 +3354,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3378,7 +3375,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3390,7 +3387,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3407,11 +3404,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3423,7 +3420,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3440,11 +3437,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3456,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,7 +3470,7 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3489,7 +3486,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3506,11 +3503,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3522,7 +3519,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3543,7 +3540,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3555,14 +3552,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,11 +3569,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3588,7 +3585,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3621,7 +3618,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3642,7 +3639,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3654,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,11 +3668,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3687,7 +3684,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3704,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3720,7 +3717,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3741,7 +3738,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3753,7 +3750,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3770,11 +3767,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3786,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,11 +3800,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3819,7 +3816,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3852,7 +3849,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3869,11 +3866,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -3885,14 +3882,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3902,11 +3899,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3918,7 +3915,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3935,11 +3932,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3951,7 +3948,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3968,14 +3965,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4001,14 +3998,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4137,7 +4134,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4166,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4236,10 +4233,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q91" s="12">
         <v>258</v>
-      </c>
-      <c t="s" r="Q91" s="12">
-        <v>259</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4248,7 +4245,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4265,14 +4262,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4281,7 +4278,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4302,7 +4299,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4314,7 +4311,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4331,11 +4328,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4347,7 +4344,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4364,11 +4361,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4376,13 +4373,13 @@
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="P96" s="13">
-        <v>5088.3050000000003</v>
+        <v>5122.9750000000004</v>
       </c>
       <c r="Q96" s="13"/>
     </row>
     <row r="97" ht="16.5" customHeight="1">
       <c t="s" r="A97" s="14">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B97" s="14"/>
       <c r="C97" s="14"/>
@@ -4390,13 +4387,13 @@
       <c r="E97" s="14"/>
       <c r="F97" s="14"/>
       <c t="s" r="G97" s="15">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="16"/>
       <c t="s" r="K97" s="17">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L97" s="17"/>
       <c r="M97" s="17"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -398,6 +407,15 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -512,12 +530,6 @@
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
     <t>MEMEXA 10MG 30F.C. TAB.</t>
   </si>
   <si>
@@ -719,6 +731,12 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -806,7 +824,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:28 PM</t>
+    <t>Friday, 18 July, 2025 10:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2344,15 +2362,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2364,7 +2382,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2381,7 +2399,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2404,7 +2422,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2421,7 +2439,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2437,7 +2455,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2454,7 +2472,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2470,7 +2488,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2480,11 +2498,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2496,14 +2514,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,14 +2531,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2529,14 +2547,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2569,7 +2587,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2586,7 +2604,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2602,7 +2620,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,11 +2630,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2678,14 +2696,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2701,7 +2719,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2711,11 +2729,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2760,7 +2778,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2777,11 +2795,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2828,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2826,7 +2844,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2859,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,14 +2894,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,11 +2927,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2958,31 +2976,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2998,7 +3016,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3026,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3024,28 +3042,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3090,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3130,7 +3148,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3163,7 +3181,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,11 +3191,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3189,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3224,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3305,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3338,11 +3356,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3354,7 +3372,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,31 +3438,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3460,7 +3478,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3474,7 +3492,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3486,7 +3504,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3499,15 +3517,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3559,7 +3577,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3620,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,11 +3653,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3686,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3750,7 +3768,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3767,11 +3785,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3783,14 +3801,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>24</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3856,7 +3874,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3873,7 +3891,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3889,7 +3907,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>24</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3932,11 +3950,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3981,14 +3999,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,14 +4016,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>146</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,14 +4049,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>24</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,28 +4065,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4080,31 +4098,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,31 +4131,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>155</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,11 +4181,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4179,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4214,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4212,14 +4230,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,14 +4247,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>258</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,14 +4280,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>214</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>120</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4313,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>155</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,14 +4346,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4344,14 +4362,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4361,49 +4379,148 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>114</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5122.9750000000004</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>265</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
-        <v>266</v>
-      </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
-        <v>267</v>
-      </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>268</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>12</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>13</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>256</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>269</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>21</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>13</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>116</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>270</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>63</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>13</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>116</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5407.9650000000001</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>271</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>272</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>273</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4857,10 +4974,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -77,6 +77,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -266,6 +275,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -482,9 +500,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -752,6 +767,12 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -824,7 +845,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:36 PM</t>
+    <t>Friday, 18 July, 2025 10:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1531,7 +1552,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1541,14 +1562,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1557,14 +1578,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1581,7 +1602,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1597,7 +1618,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1647,7 +1668,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1680,7 +1701,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1706,11 +1727,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1722,14 +1743,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1739,14 +1760,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1762,7 +1783,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1772,11 +1793,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1788,14 +1809,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1828,7 +1849,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1838,14 +1859,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1854,14 +1875,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1871,14 +1892,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1911,7 +1932,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1927,24 +1948,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1960,21 +1981,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1993,7 +2014,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2010,7 +2031,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2026,7 +2047,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2059,7 +2080,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2069,14 +2090,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2135,14 +2156,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2168,11 +2189,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2257,7 +2278,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2304,10 +2325,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2323,7 +2344,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2356,24 +2377,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2389,7 +2410,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2399,11 +2420,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2415,7 +2436,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2428,15 +2449,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2448,14 +2469,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2465,14 +2486,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2521,7 +2542,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2531,14 +2552,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2547,14 +2568,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2564,14 +2585,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2580,14 +2601,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2597,14 +2618,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2613,14 +2634,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2637,7 +2658,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2653,7 +2674,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2686,7 +2707,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2696,11 +2717,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2712,14 +2733,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2745,14 +2766,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>106</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2785,7 +2806,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2795,11 +2816,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2811,14 +2832,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2828,14 +2849,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2844,7 +2865,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2861,11 +2882,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2877,14 +2898,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2894,14 +2915,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2910,7 +2931,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2927,11 +2948,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2943,14 +2964,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2960,14 +2981,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2976,14 +2997,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2993,11 +3014,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3026,11 +3047,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3042,31 +3063,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3115,21 +3136,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3181,7 +3202,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3207,14 +3228,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3224,11 +3245,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3240,14 +3261,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3257,11 +3278,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3280,7 +3301,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,11 +3311,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,14 +3344,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3339,14 +3360,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,14 +3410,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,11 +3443,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3438,7 +3459,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3455,14 +3476,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3478,7 +3499,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3495,7 +3516,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3511,24 +3532,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,14 +3558,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,11 +3575,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>58</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3570,7 +3591,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3583,15 +3604,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3610,7 +3631,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>56</v>
+        <v>129</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3660,7 +3681,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3676,7 +3697,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,11 +3707,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3709,7 +3730,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,11 +3740,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3735,14 +3756,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,11 +3773,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3775,7 +3796,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3785,14 +3806,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3801,14 +3822,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,14 +3839,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3874,7 +3895,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,14 +3905,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3900,14 +3921,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3917,14 +3938,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>25</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,14 +3971,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3966,14 +3987,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,14 +4004,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,14 +4020,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4016,11 +4037,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4032,14 +4053,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4049,14 +4070,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,14 +4086,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,11 +4103,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4105,7 +4126,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,14 +4136,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>113</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4138,7 +4159,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,14 +4169,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>24</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4171,24 +4192,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>63</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>119</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4204,24 +4225,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4230,28 +4251,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>130</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>161</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4263,14 +4284,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4280,11 +4301,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>21</v>
@@ -4296,14 +4317,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,11 +4334,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4329,14 +4350,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4353,7 +4374,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>264</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4362,14 +4383,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,14 +4400,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>219</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4395,14 +4416,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4412,11 +4433,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>161</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4435,7 +4456,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4445,14 +4466,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>116</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4461,14 +4482,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4478,49 +4499,148 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>116</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>117</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5407.9650000000001</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>271</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>272</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>273</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>275</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>12</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>13</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>263</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>276</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>21</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>13</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>122</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>277</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>66</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>13</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>122</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5543.9650000000001</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>278</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>279</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>280</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4989,10 +5109,25 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -383,6 +383,18 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
   </si>
   <si>
@@ -398,9 +410,6 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -512,6 +521,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
     <t>LEZBERG TRIO 40/10/25MG TAB</t>
   </si>
   <si>
@@ -614,6 +632,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -695,9 +722,6 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -755,10 +779,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>50.4900</t>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>67.3200</t>
   </si>
   <si>
     <t>VOLTAREN 75MG/3ML 6 AMP.</t>
@@ -824,7 +848,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>16:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -839,13 +863,19 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>كريم هيمالايا</t>
   </si>
   <si>
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:48 PM</t>
+    <t>Friday, 18 July, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2625,7 +2655,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2658,7 +2688,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2674,7 +2704,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2707,7 +2737,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2724,7 +2754,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2740,7 +2770,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2757,7 +2787,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2773,7 +2803,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2783,14 +2813,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2799,14 +2829,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2816,7 +2846,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2839,7 +2869,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2856,7 +2886,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2872,7 +2902,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2882,14 +2912,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2898,14 +2928,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2915,7 +2945,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2938,7 +2968,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2948,11 +2978,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2964,14 +2994,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2981,14 +3011,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2997,14 +3027,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3014,14 +3044,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3037,7 +3067,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3047,14 +3077,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3063,14 +3093,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3080,14 +3110,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3096,14 +3126,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3113,14 +3143,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3136,13 +3166,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3179,11 +3209,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3195,28 +3225,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3228,14 +3258,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3245,14 +3275,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3261,14 +3291,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3278,14 +3308,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3294,14 +3324,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3311,11 +3341,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3327,14 +3357,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3344,11 +3374,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3360,14 +3390,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3400,7 +3430,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3410,14 +3440,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3426,14 +3456,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3450,7 +3480,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3466,7 +3496,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3483,7 +3513,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3499,7 +3529,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3542,14 +3572,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,14 +3588,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3575,14 +3605,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3591,31 +3621,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>145</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3624,14 +3654,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3641,14 +3671,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3657,14 +3687,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3674,14 +3704,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3690,28 +3720,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>200</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3723,14 +3753,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>212</v>
+        <v>125</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3740,11 +3770,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3756,7 +3786,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3773,11 +3803,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3789,14 +3819,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3806,14 +3836,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3822,14 +3852,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3839,14 +3869,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3855,7 +3885,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3872,11 +3902,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3888,14 +3918,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3905,14 +3935,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3921,14 +3951,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3938,11 +3968,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3954,14 +3984,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3971,14 +4001,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3987,14 +4017,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4004,14 +4034,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4020,7 +4050,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4037,11 +4067,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4053,14 +4083,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4070,14 +4100,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4086,14 +4116,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4103,14 +4133,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>27</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4119,14 +4149,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4136,14 +4166,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4152,14 +4182,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4169,11 +4199,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4192,7 +4222,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4202,14 +4232,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4225,7 +4255,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4235,14 +4265,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4251,14 +4281,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4268,11 +4298,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4284,31 +4314,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>119</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4317,31 +4347,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>27</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4350,28 +4380,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>262</v>
+        <v>21</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4383,14 +4413,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4400,11 +4430,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4456,7 +4486,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4466,14 +4496,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>271</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4489,7 +4519,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4499,14 +4529,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>129</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4515,14 +4545,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4532,11 +4562,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4548,14 +4578,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4565,14 +4595,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>122</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4581,14 +4611,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4598,49 +4628,181 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>283</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>13</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>271</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>284</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>47</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>13</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>285</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>286</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>21</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>13</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>122</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
         <v>123</v>
       </c>
-      <c t="s" r="Q101" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5543.9650000000001</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>278</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>279</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
-        <v>280</v>
-      </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q104" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>287</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>66</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>13</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>122</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5913.7950000000001</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>288</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>289</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>290</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5124,10 +5286,30 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -863,6 +863,9 @@
     <t>فرشه اسنان POWER GOLD كبار</t>
   </si>
   <si>
+    <t>قصافات كبار</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -875,7 +878,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:54 PM</t>
+    <t>Friday, 18 July, 2025 10:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4684,7 +4687,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4694,11 +4697,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>73</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4710,14 +4713,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4727,11 +4730,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>122</v>
+        <v>286</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4750,7 +4753,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4771,38 +4774,71 @@
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5913.7950000000001</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>288</v>
       </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>66</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>13</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>122</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5933.7950000000001</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
         <v>289</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
         <v>290</v>
       </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>291</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5306,10 +5342,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -878,7 +878,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 10:55 PM</t>
+    <t>Friday, 18 July, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -410,10 +410,13 @@
     <t>FLAGYL 500MG 20 TAB.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
     <t>34.00</t>
   </si>
   <si>
-    <t>17.0000</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
@@ -872,13 +875,19 @@
     <t>10.00</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>7.5000</t>
+  </si>
+  <si>
     <t>كريم هيمالايا</t>
   </si>
   <si>
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:12 PM</t>
+    <t>Friday, 18 July, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2707,7 +2716,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2717,14 +2726,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2733,7 +2742,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2750,11 +2759,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2766,7 +2775,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2783,11 +2792,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2799,7 +2808,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2816,11 +2825,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2832,7 +2841,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2853,7 +2862,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2865,7 +2874,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2882,11 +2891,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2898,7 +2907,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2915,11 +2924,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2931,7 +2940,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2952,7 +2961,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2964,7 +2973,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2981,11 +2990,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2997,7 +3006,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3030,7 +3039,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3047,14 +3056,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3063,7 +3072,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3080,11 +3089,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3096,7 +3105,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3117,7 +3126,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3129,7 +3138,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3146,11 +3155,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3162,7 +3171,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3179,11 +3188,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3195,7 +3204,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3212,11 +3221,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3228,7 +3237,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3245,11 +3254,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3261,7 +3270,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3278,11 +3287,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3294,7 +3303,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3315,7 +3324,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3327,7 +3336,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3344,11 +3353,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3360,7 +3369,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3393,7 +3402,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3410,11 +3419,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3426,7 +3435,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3443,11 +3452,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3459,14 +3468,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3476,11 +3485,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3492,7 +3501,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3509,11 +3518,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3525,7 +3534,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3542,11 +3551,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3558,7 +3567,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3575,11 +3584,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3608,11 +3617,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3624,7 +3633,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3645,7 +3654,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3657,7 +3666,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3674,11 +3683,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3690,7 +3699,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3707,11 +3716,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3723,7 +3732,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3740,11 +3749,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3756,7 +3765,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3773,7 +3782,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3789,7 +3798,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3806,11 +3815,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3822,7 +3831,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3843,7 +3852,7 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3855,14 +3864,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3872,11 +3881,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3888,7 +3897,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3921,7 +3930,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3942,7 +3951,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3954,7 +3963,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3971,11 +3980,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -3987,7 +3996,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4004,11 +4013,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4020,7 +4029,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4041,7 +4050,7 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>26</v>
@@ -4053,7 +4062,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4070,7 +4079,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4086,7 +4095,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4103,11 +4112,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4119,7 +4128,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4152,7 +4161,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4169,11 +4178,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4185,7 +4194,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4202,11 +4211,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4218,7 +4227,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4235,11 +4244,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4251,7 +4260,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4268,11 +4277,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>125</v>
@@ -4284,7 +4293,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4301,11 +4310,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4317,14 +4326,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4338,7 +4347,7 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>96</v>
@@ -4350,7 +4359,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4371,7 +4380,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4383,7 +4392,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4400,11 +4409,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>21</v>
@@ -4416,7 +4425,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4433,11 +4442,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4449,14 +4458,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4466,11 +4475,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4482,14 +4491,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4499,11 +4508,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4515,7 +4524,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4532,11 +4541,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4548,14 +4557,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4565,11 +4574,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4581,7 +4590,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4598,14 +4607,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4614,7 +4623,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4631,11 +4640,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>125</v>
@@ -4647,7 +4656,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4664,11 +4673,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4680,7 +4689,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4697,11 +4706,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4713,7 +4722,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4730,7 +4739,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4746,14 +4755,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4763,14 +4772,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>122</v>
+        <v>272</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>123</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4779,14 +4788,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4807,38 +4816,71 @@
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5933.7950000000001</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
-        <v>289</v>
-      </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
-        <v>290</v>
-      </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>291</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>66</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>13</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>122</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5924.2950000000001</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>292</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>293</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>294</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5347,10 +5389,15 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:13 PM</t>
+    <t>Friday, 18 July, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>58.0000</t>
   </si>
   <si>
+    <t>ALLERBAN S.R. 2 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -326,12 +335,18 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -386,345 +401,348 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>180.00</t>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>LASIX 40MG 24 TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>LEZBERG TRIO 40/10/25MG TAB</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>OUT POWER GOLD SPRAY</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
   </si>
   <si>
     <t>90.0000</t>
   </si>
   <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>LASIX 40MG 24 TAB.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>116.0000</t>
-  </si>
-  <si>
-    <t>LEZBERG TRIO 40/10/25MG TAB</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>OUT POWER GOLD SPRAY</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -767,9 +785,6 @@
     <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
   </si>
   <si>
-    <t>38.00</t>
-  </si>
-  <si>
     <t>76.0000</t>
   </si>
   <si>
@@ -794,6 +809,18 @@
     <t>16.3200</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8533:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -848,9 +875,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>16:0</t>
   </si>
   <si>
@@ -860,7 +884,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>فرشه اسنان POWER GOLD كبار</t>
@@ -1627,7 +1651,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1637,11 +1661,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1653,14 +1677,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1677,7 +1701,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1693,7 +1717,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1703,14 +1727,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1719,14 +1743,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1743,7 +1767,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1776,7 +1800,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1802,11 +1826,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1818,14 +1842,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1835,14 +1859,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1858,7 +1882,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1868,11 +1892,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1884,14 +1908,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1924,7 +1948,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1934,14 +1958,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1950,14 +1974,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1967,14 +1991,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1983,14 +2007,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2007,7 +2031,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2023,24 +2047,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2056,21 +2080,21 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -2089,7 +2113,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2106,7 +2130,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2122,7 +2146,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2155,7 +2179,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2165,14 +2189,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2198,11 +2222,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -2214,14 +2238,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2231,14 +2255,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2247,14 +2271,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2271,7 +2295,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2287,7 +2311,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,14 +2321,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2313,14 +2337,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,11 +2354,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2346,14 +2370,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2367,10 +2391,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2403,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,14 +2420,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2419,7 +2443,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,14 +2453,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2452,7 +2476,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2486,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,28 +2502,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2511,7 +2535,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2524,15 +2548,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2544,7 +2568,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2561,11 +2585,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2577,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2618,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,14 +2634,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,14 +2651,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2643,14 +2667,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,14 +2684,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2676,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2700,7 +2724,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2733,7 +2757,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2749,7 +2773,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2759,14 +2783,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2775,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2792,14 +2816,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2808,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2825,14 +2849,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2841,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,14 +2882,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2874,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2891,11 +2915,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2907,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,14 +2948,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2940,14 +2964,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2981,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2997,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,11 +3014,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3006,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,11 +3047,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3039,14 +3063,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3056,14 +3080,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,14 +3096,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3113,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,14 +3129,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,14 +3146,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3138,14 +3162,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,14 +3179,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3195,7 +3219,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,14 +3228,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,7 +3261,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3250,18 +3274,18 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3270,7 +3294,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3283,18 +3307,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,14 +3327,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3344,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3360,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,11 +3377,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3369,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3386,14 +3410,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>112</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3402,7 +3426,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3419,14 +3443,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3476,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3509,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,11 +3542,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3534,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,11 +3608,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3600,7 +3624,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3617,11 +3641,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3633,7 +3657,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3650,14 +3674,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,31 +3756,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,31 +3789,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>152</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>61</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3798,14 +3822,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3815,14 +3839,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3831,14 +3855,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3848,11 +3872,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3864,14 +3888,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,14 +3905,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3897,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,14 +3971,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3963,14 +3987,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,14 +4004,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3996,14 +4020,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,11 +4037,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4029,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4070,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>34</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4086,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4103,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4128,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4145,11 +4169,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>27</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>28</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4161,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4178,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4194,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4211,11 +4235,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4227,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4244,11 +4268,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4260,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4277,14 +4301,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4310,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4326,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4343,14 +4367,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>119</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4359,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4376,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,14 +4416,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4409,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,28 +4449,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>21</v>
@@ -4458,28 +4482,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>267</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4491,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4508,11 +4532,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>170</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4524,14 +4548,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>47</v>
+        <v>276</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4541,11 +4565,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4557,14 +4581,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4574,11 +4598,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4590,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4607,14 +4631,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>280</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,14 +4647,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4640,14 +4664,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>125</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4656,7 +4680,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4673,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>170</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4706,14 +4730,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4739,11 +4763,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4755,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4772,14 +4796,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,14 +4812,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4805,11 +4829,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>122</v>
+        <v>295</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4821,14 +4845,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4838,49 +4862,115 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>122</v>
+        <v>281</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>123</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5924.2950000000001</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>292</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>293</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>294</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>298</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>21</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>13</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>127</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>69</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>13</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>127</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>6196.1350000000002</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>300</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>301</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>302</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5394,10 +5484,20 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -335,186 +335,183 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>7:0</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>47.5200</t>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAST CARE-D SHAMPOO 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAST CARE-D SHAMPOO 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
   </si>
   <si>
@@ -686,6 +683,12 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
     <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -911,7 +914,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:23 PM</t>
+    <t>Friday, 18 July, 2025 11:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2490,10 +2493,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2502,7 +2505,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2519,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2535,7 +2538,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2552,11 +2555,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2568,7 +2571,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2589,7 +2592,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2618,11 +2621,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2651,11 +2654,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2667,7 +2670,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2684,11 +2687,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2700,7 +2703,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2717,11 +2720,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>99</v>
@@ -2733,14 +2736,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2750,11 +2753,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2766,14 +2769,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2783,11 +2786,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2799,7 +2802,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2816,11 +2819,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2832,7 +2835,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2865,7 +2868,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2882,11 +2885,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2898,7 +2901,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2919,7 +2922,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2931,7 +2934,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2964,7 +2967,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2997,7 +3000,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3030,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3063,7 +3066,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3080,14 +3083,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3096,14 +3099,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3113,14 +3116,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>111</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3129,7 +3132,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3146,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -3162,7 +3165,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3183,7 +3186,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3195,7 +3198,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3212,11 +3215,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3245,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3261,7 +3264,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3327,7 +3330,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3377,11 +3380,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3393,7 +3396,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3459,7 +3462,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3492,7 +3495,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3509,11 +3512,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3591,7 +3594,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3624,7 +3627,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3657,7 +3660,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3711,7 +3714,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3723,7 +3726,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3740,11 +3743,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3756,7 +3759,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3773,11 +3776,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3789,7 +3792,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3806,11 +3809,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3839,7 +3842,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3855,7 +3858,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3872,11 +3875,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3905,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3928,7 +3931,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3938,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3954,14 +3957,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3971,14 +3974,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3994,7 +3997,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4020,14 +4023,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4037,14 +4040,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>58</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4053,14 +4056,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4070,11 +4073,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4086,14 +4089,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4103,14 +4106,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4119,14 +4122,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4136,14 +4139,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4152,14 +4155,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4169,14 +4172,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4202,11 +4205,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4225,7 +4228,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4238,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,11 +4304,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4317,7 +4320,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4334,14 +4337,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4350,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,14 +4370,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4383,14 +4386,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4400,14 +4403,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,14 +4452,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>267</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4482,14 +4485,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,11 +4502,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>138</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4515,28 +4518,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>273</v>
+        <v>136</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>21</v>
@@ -4548,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>276</v>
+        <v>69</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4565,11 +4568,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>21</v>
@@ -4581,14 +4584,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>175</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4614,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>281</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,11 +4634,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4654,7 +4657,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>284</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,11 +4667,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4680,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4697,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>52</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>288</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4713,7 +4716,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4730,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>291</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>50</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4746,7 +4749,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4763,14 +4766,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4786,7 +4789,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4796,11 +4799,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4819,7 +4822,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,11 +4832,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>21</v>
@@ -4845,14 +4848,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,14 +4865,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4878,14 +4881,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,14 +4898,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>127</v>
+        <v>282</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>128</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4918,7 +4921,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,49 +4931,82 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>6196.1350000000002</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>300</v>
       </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>69</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>13</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>125</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6197.2950000000001</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
         <v>301</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
         <v>302</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>303</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5494,10 +5530,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -434,6 +434,15 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% OINT. 15 GM</t>
   </si>
   <si>
@@ -578,6 +587,12 @@
     <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
   </si>
   <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>MEMEXA 10MG 30F.C. TAB.</t>
   </si>
   <si>
@@ -914,7 +929,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:28 PM</t>
+    <t>Friday, 18 July, 2025 11:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2842,13 +2857,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2859,7 +2874,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2875,7 +2890,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2892,7 +2907,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2908,7 +2923,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2918,14 +2933,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2934,14 +2949,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2951,7 +2966,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2974,7 +2989,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2991,7 +3006,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3007,7 +3022,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3017,14 +3032,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3033,14 +3048,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3050,11 +3065,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -3066,14 +3081,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3083,14 +3098,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3099,14 +3114,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3116,14 +3131,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3132,14 +3147,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3149,14 +3164,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
         <v>169</v>
-      </c>
-      <c t="s" r="Q55" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3172,7 +3187,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3182,14 +3197,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>92</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3198,14 +3213,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3215,14 +3230,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3246,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3263,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3271,7 +3286,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3288,7 +3303,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3310,7 +3325,7 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3321,7 +3336,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3343,18 +3358,18 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3363,14 +3378,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,14 +3395,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,14 +3411,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,7 +3428,7 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3436,7 +3451,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3446,14 +3461,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3462,7 +3477,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3479,14 +3494,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3502,7 +3517,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3512,14 +3527,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3535,7 +3550,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3545,11 +3560,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3561,14 +3576,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3593,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3594,14 +3609,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3626,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3627,14 +3642,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3659,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3660,14 +3675,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,11 +3692,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3693,7 +3708,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3710,14 +3725,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3733,7 +3748,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3766,7 +3781,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,11 +3791,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3792,28 +3807,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>150</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3825,14 +3840,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,11 +3857,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3858,7 +3873,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3871,15 +3886,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3898,7 +3913,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,11 +3923,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>136</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3931,7 +3946,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3956,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3957,14 +3972,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,7 +3989,7 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>136</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -3997,7 +4012,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4022,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>86</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4030,7 +4045,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4040,11 +4055,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>58</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4056,14 +4071,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,11 +4088,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>21</v>
@@ -4096,7 +4111,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4121,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>58</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4137,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,14 +4154,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>37</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,7 +4210,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4220,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>37</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4236,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4253,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4269,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4271,14 +4286,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,14 +4302,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>158</v>
+        <v>21</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4319,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,14 +4335,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4337,11 +4352,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4353,14 +4368,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,14 +4385,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>26</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>259</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>158</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4393,7 +4408,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4407,7 +4422,7 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4419,14 +4434,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4451,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>99</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4459,7 +4474,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4484,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4502,14 +4517,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4533,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,14 +4550,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4551,20 +4566,20 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>69</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
@@ -4591,21 +4606,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>277</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4617,14 +4632,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>281</v>
+        <v>69</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,11 +4649,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>174</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4650,14 +4665,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>282</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4682,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4683,14 +4698,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,11 +4715,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4723,7 +4738,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4733,14 +4748,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>289</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4764,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4773,7 +4788,7 @@
         <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4799,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4815,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4847,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4863,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,11 +4880,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>21</v>
@@ -4881,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4898,14 +4913,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4914,14 +4929,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4931,11 +4946,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4947,14 +4962,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4964,49 +4979,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>304</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>21</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>13</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>125</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
         <v>126</v>
       </c>
-      <c t="s" r="Q110" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6197.2950000000001</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>301</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>302</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>303</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c t="s" r="Q111" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>69</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>13</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>125</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6246.4799999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>306</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>307</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>308</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5535,10 +5616,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -689,6 +689,9 @@
     <t>92.00</t>
   </si>
   <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -761,6 +764,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -929,7 +938,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:30 PM</t>
+    <t>Friday, 18 July, 2025 11:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3913,7 +3922,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3927,10 +3936,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3939,7 +3948,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3972,7 +3981,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3993,7 +4002,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4005,7 +4014,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4038,14 +4047,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4104,7 +4113,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4125,7 +4134,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4137,7 +4146,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>21</v>
@@ -4170,7 +4179,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4203,7 +4212,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4224,7 +4233,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>29</v>
@@ -4236,7 +4245,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4253,11 +4262,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4269,14 +4278,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>161</v>
+        <v>69</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,11 +4295,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4309,7 +4318,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,14 +4361,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4375,7 +4384,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4408,7 +4417,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4451,14 +4460,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>26</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>161</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4467,14 +4476,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>161</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4500,14 +4509,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4540,7 +4549,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,14 +4559,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4566,14 +4575,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,14 +4592,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>274</v>
+        <v>30</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4599,14 +4608,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4616,11 +4625,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4632,24 +4641,24 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>279</v>
+        <v>136</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
@@ -4672,7 +4681,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,11 +4691,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4698,14 +4707,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,11 +4724,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>177</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4738,7 +4747,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,11 +4757,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>241</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>21</v>
@@ -4764,14 +4773,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>290</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4790,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4797,14 +4806,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4814,14 +4823,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>52</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>294</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,7 +4839,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4847,14 +4856,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q106" s="12">
         <v>297</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>50</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4880,14 +4889,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>177</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4896,14 +4905,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,11 +4922,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>280</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4929,14 +4938,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,11 +4955,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4962,14 +4971,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4979,14 +4988,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4995,14 +5004,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5012,14 +5021,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5028,14 +5037,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5056,38 +5065,71 @@
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6246.4799999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>306</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>307</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>308</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>69</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>13</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>125</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6292.4799999999996</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>309</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>310</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>311</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5626,10 +5668,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -179,6 +179,18 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>48.5100</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -194,732 +206,756 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>CEFTRIAXONE SODIUM 1 GM I.M.VIAL (KAHIRA</t>
+  </si>
+  <si>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CETAL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>CLATEX 75MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>117.00</t>
+  </si>
+  <si>
+    <t>117.0000</t>
+  </si>
+  <si>
+    <t>CLOZAPEX 25MG 50 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>EMPIR G CAPS</t>
+  </si>
+  <si>
+    <t>109.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>FAST CARE-D SHAMPOO 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>GABAVERONA 300MG CAPS</t>
+  </si>
+  <si>
+    <t>94.50</t>
+  </si>
+  <si>
+    <t>31.1850</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>303.00</t>
+  </si>
+  <si>
+    <t>99.9900</t>
+  </si>
+  <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
+    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>104.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>LASIX 40MG 24 TAB.</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>116.0000</t>
+  </si>
+  <si>
+    <t>LEZBERG TRIO 40/10/25MG TAB</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>LIVABION 6 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
+    <t>MAVILOR 5MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
+    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>MEDEXAFLAM 15MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MEMEXA 10MG 30F.C. TAB.</t>
+  </si>
+  <si>
+    <t>237.00</t>
+  </si>
+  <si>
+    <t>78.2100</t>
+  </si>
+  <si>
+    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MILGA 40 TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>MUCOSTA 100MG 20 TAB</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>152.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>OFLAM 50MG 20 QUICKETAB.</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>OUT POWER GOLD SPRAY</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 500MG 20 TAB</t>
+  </si>
+  <si>
+    <t>17.0000</t>
+  </si>
+  <si>
+    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>23.00</t>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>SANSOVIT PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>67.0000</t>
+  </si>
+  <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
+    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>STREPTOQUIN 20 TABLETS</t>
+  </si>
+  <si>
+    <t>46.00</t>
   </si>
   <si>
     <t>23.0000</t>
   </si>
   <si>
-    <t>CETAL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>CLATEX 75MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>117.00</t>
-  </si>
-  <si>
-    <t>117.0000</t>
-  </si>
-  <si>
-    <t>CLOZAPEX 25MG 50 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>TRILEPTAL 60MG/ML ORAL SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>160.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>76.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>67.3200</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>16.3200</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8531:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>XILONE 5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
+  </si>
+  <si>
+    <t>زيت فاتيكا وسط 90 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>فرشه اسنان POWER GOLD كبار</t>
+  </si>
+  <si>
+    <t>قصافات كبار</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>ELICA-M CREAM 30 GRAM</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>EMPIR G CAPS</t>
-  </si>
-  <si>
-    <t>109.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>FAST CARE-D SHAMPOO 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>34.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>GABAVERONA 300MG CAPS</t>
-  </si>
-  <si>
-    <t>94.50</t>
-  </si>
-  <si>
-    <t>31.1850</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA 100MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>303.00</t>
-  </si>
-  <si>
-    <t>99.9900</t>
-  </si>
-  <si>
-    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>GOLD PLUS VAG.DOUCHE 250 ML</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>HEPAMARIN 140MG 30 CAPSULE</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>24.7500</t>
-  </si>
-  <si>
-    <t>IMUTREXATE 2.5 MG 10 TABS.</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>INSULINAGYPT 70/30 100 I.U./ML (4ML) VIAL</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>104.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>LASIX 40MG 24 TAB.</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>L-CARNITINE PLUS 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>116.00</t>
-  </si>
-  <si>
-    <t>116.0000</t>
-  </si>
-  <si>
-    <t>LEZBERG TRIO 40/10/25MG TAB</t>
-  </si>
-  <si>
-    <t>162.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>LIVABION 6 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>15.3600</t>
-  </si>
-  <si>
-    <t>MAVILOR 5MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>34.6500</t>
-  </si>
-  <si>
-    <t>MEBO 0.25% HERBAL AND NATURAL OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>MEDEXAFLAM 15MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>MEMEXA 10MG 30F.C. TAB.</t>
-  </si>
-  <si>
-    <t>237.00</t>
-  </si>
-  <si>
-    <t>78.2100</t>
-  </si>
-  <si>
-    <t>METACARDIA MR 35MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MILGA 40 TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>MUCOSTA 100MG 20 TAB</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>152.0000</t>
-  </si>
-  <si>
-    <t>NIZAPEX 20MG/GM SHAMPOO 80 ML</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>NOTUSSIL 4MG/ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>71.0000</t>
-  </si>
-  <si>
-    <t>OFLAM 50MG 20 QUICKETAB.</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>135.0000</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>OUT POWER GOLD SPRAY</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>PARACETAMOL 500MG 20 TAB</t>
-  </si>
-  <si>
-    <t>17.0000</t>
-  </si>
-  <si>
-    <t>PICOLAX 0.75% ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:4</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>SANSOVIT PLUS SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>SOLOFRESH 0.2% EYE DROPS 10 ML</t>
-  </si>
-  <si>
-    <t>67.00</t>
-  </si>
-  <si>
-    <t>67.0000</t>
-  </si>
-  <si>
-    <t>SPASMO-DIGESTIN 30 TABS.</t>
-  </si>
-  <si>
-    <t>51.4800</t>
-  </si>
-  <si>
-    <t>SPASULANCE 62.5 MG 20 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>STREPTOQUIN 20 TABLETS</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEBOFORTIN 80MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>TIRALEPSY 100MG/ML ORAL SOL. 120 ML</t>
-  </si>
-  <si>
-    <t>103.00</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>TRILEPTAL 60MG/ML ORAL SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>160.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>VECOVARTEC PLUS 40/12.5MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>76.00</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>67.3200</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>16.3200</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8533:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>34.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
-  </si>
-  <si>
-    <t>زيت فاتيكا وسط 90 مل</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>16:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>فرشه اسنان POWER GOLD كبار</t>
-  </si>
-  <si>
-    <t>قصافات كبار</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -938,7 +974,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:33 PM</t>
+    <t>Friday, 18 July, 2025 11:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2025,7 +2061,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2034,14 +2070,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2051,14 +2087,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2074,7 +2110,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2091,7 +2127,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2107,24 +2143,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2133,14 +2169,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2150,14 +2186,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2166,31 +2202,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2216,14 +2252,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2249,14 +2285,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2265,14 +2301,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2289,7 +2325,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2315,14 +2351,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2331,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2355,7 +2391,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2371,7 +2407,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2381,11 +2417,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2397,14 +2433,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2414,11 +2450,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2430,14 +2466,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2447,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2470,7 +2506,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2480,14 +2516,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2496,14 +2532,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2517,10 +2553,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2529,14 +2565,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2546,14 +2582,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2569,13 +2605,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2602,7 +2638,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2612,14 +2648,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2628,14 +2664,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2645,11 +2681,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2661,31 +2697,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2694,7 +2730,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2711,7 +2747,7 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2734,7 +2770,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2751,7 +2787,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2767,7 +2803,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2777,14 +2813,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2793,14 +2829,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2810,14 +2846,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2826,14 +2862,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2843,14 +2879,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2859,31 +2895,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2892,14 +2928,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2909,14 +2945,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2925,14 +2961,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2942,11 +2978,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2958,31 +2994,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3031,7 +3067,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3064,7 +3100,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3074,7 +3110,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3097,7 +3133,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3107,11 +3143,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3123,14 +3159,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3140,14 +3176,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3163,7 +3199,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3173,14 +3209,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3189,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3206,11 +3242,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3222,14 +3258,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3239,14 +3275,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3255,14 +3291,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3272,14 +3308,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3288,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3305,14 +3341,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3321,14 +3357,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3338,14 +3374,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3361,24 +3397,24 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3387,14 +3423,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3404,14 +3440,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3420,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3437,14 +3473,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3460,13 +3496,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3503,11 +3539,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3519,14 +3555,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3536,11 +3572,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3552,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3569,11 +3605,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3585,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3602,11 +3638,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3625,7 +3661,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3635,11 +3671,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3651,14 +3687,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3668,11 +3704,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3684,14 +3720,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3701,11 +3737,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3717,14 +3753,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3734,14 +3770,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3750,14 +3786,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3767,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3783,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3800,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3816,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3833,11 +3869,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>102</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3849,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3866,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3882,28 +3918,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3915,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3932,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>118</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3948,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3965,11 +4001,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -3981,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3998,11 +4034,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>136</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4014,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4031,11 +4067,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4047,31 +4083,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4097,14 +4133,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4113,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4130,14 +4166,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>58</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4146,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4163,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4179,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4196,11 +4232,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>73</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4212,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4229,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>37</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4245,7 +4281,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4262,11 +4298,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>92</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4278,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4295,11 +4331,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4311,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4328,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4344,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4361,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>30</v>
+        <v>254</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>31</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4377,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4394,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4410,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4427,11 +4463,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4443,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4460,14 +4496,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4476,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4493,14 +4529,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4509,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4526,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4542,14 +4578,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4559,14 +4595,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4575,14 +4611,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4592,14 +4628,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4608,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>276</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4625,11 +4661,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4641,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4658,14 +4694,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>136</v>
+        <v>26</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4674,28 +4710,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4707,31 +4743,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4740,31 +4776,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>177</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4773,31 +4809,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>287</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>242</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4806,28 +4842,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>294</v>
+        <v>144</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>21</v>
@@ -4839,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4856,14 +4892,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>297</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4872,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4889,14 +4925,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4905,14 +4941,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4922,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4945,7 +4981,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4955,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -4978,7 +5014,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4988,11 +5024,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5004,7 +5040,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5021,14 +5057,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5037,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5054,14 +5090,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>126</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5070,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5087,49 +5123,214 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6292.4799999999996</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>309</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>310</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
-        <v>311</v>
-      </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>313</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>314</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>13</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>293</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>315</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>50</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>13</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>316</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>317</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>12</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>13</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>301</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>319</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>21</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>13</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>134</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>320</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>76</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>13</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>134</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>6595.2150000000001</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>321</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>322</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>323</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5673,10 +5874,35 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -263,6 +263,12 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>COLD FREE 20 TAB.</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
@@ -278,9 +284,6 @@
     <t>3:1</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -650,6 +653,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>NACTALIA 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -854,6 +866,9 @@
     <t>76.00</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -974,7 +989,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:34 PM</t>
+    <t>Friday, 18 July, 2025 11:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2308,7 +2323,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,14 +2333,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2334,14 +2349,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,14 +2366,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2367,14 +2382,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2384,14 +2399,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,14 +2432,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2516,14 +2531,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,11 +2564,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2630,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,14 +2663,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2697,28 +2712,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2730,7 +2745,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2743,15 +2758,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2763,7 +2778,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2780,11 +2795,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2813,14 +2828,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2829,14 +2844,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,14 +2861,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,14 +2894,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,14 +2993,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2994,28 +3009,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3027,31 +3042,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,14 +3092,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,14 +3125,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3126,14 +3141,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,11 +3158,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3225,14 +3240,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,11 +3257,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -3258,14 +3273,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3275,14 +3290,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3308,14 +3323,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>121</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3356,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3357,14 +3372,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3397,7 +3412,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3422,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3430,7 +3445,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3456,14 +3471,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3473,14 +3488,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,7 +3504,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3502,18 +3517,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3522,7 +3537,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3535,18 +3550,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,14 +3570,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,14 +3587,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3588,14 +3603,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,11 +3620,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3621,14 +3636,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,14 +3653,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3671,14 +3686,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,7 +3702,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3704,11 +3719,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3720,14 +3735,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,14 +3752,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3753,14 +3768,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>29</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3770,14 +3785,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3786,14 +3801,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,11 +3818,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3819,14 +3834,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3851,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,14 +3867,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3869,11 +3884,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>103</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>21</v>
@@ -3892,7 +3907,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3935,11 +3950,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>103</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3951,7 +3966,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3968,14 +3983,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3984,14 +3999,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,11 +4016,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4017,14 +4032,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,11 +4049,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4050,14 +4065,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,11 +4082,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>21</v>
@@ -4090,24 +4105,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4116,14 +4131,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,14 +4148,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>70</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4149,7 +4164,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4162,15 +4177,15 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4182,14 +4197,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4214,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4230,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,11 +4247,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>73</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>21</v>
@@ -4255,7 +4270,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4280,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>145</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4281,14 +4296,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,11 +4313,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>21</v>
@@ -4314,14 +4329,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,7 +4346,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>62</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4354,7 +4369,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,11 +4379,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>21</v>
@@ -4380,14 +4395,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,14 +4412,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4413,14 +4428,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,14 +4445,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4446,7 +4461,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4463,11 +4478,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4479,14 +4494,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4511,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4527,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4544,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4560,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,11 +4577,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4585,7 +4600,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4602,7 +4617,7 @@
         <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4618,7 +4633,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,14 +4643,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>272</v>
+        <v>30</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,14 +4659,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4661,11 +4676,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>21</v>
@@ -4677,14 +4692,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4694,14 +4709,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,14 +4725,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4727,11 +4742,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4750,7 +4765,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>282</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4775,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4791,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4808,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4824,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4841,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>141</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4857,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4874,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,31 +4890,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,31 +4923,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,28 +4956,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>300</v>
+        <v>21</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>21</v>
@@ -4974,14 +4989,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5006,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>251</v>
+        <v>298</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5007,14 +5022,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5039,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>21</v>
@@ -5040,14 +5055,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,14 +5072,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>103</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>308</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,14 +5088,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,14 +5105,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5106,14 +5121,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5123,11 +5138,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>184</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5139,14 +5154,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5160,10 +5175,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>294</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,14 +5187,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,14 +5204,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>83</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5222,14 +5237,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>318</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5238,14 +5253,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,11 +5270,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>135</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5278,7 +5293,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,49 +5303,148 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>322</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>12</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>13</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>306</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>323</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>324</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>21</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>13</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
         <v>135</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>6595.2150000000001</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>321</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>322</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>323</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>325</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>76</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>13</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>135</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6921.2150000000001</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>326</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>327</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>328</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5899,10 +6013,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -488,6 +488,18 @@
     <t>99.9900</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -989,7 +1001,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:38 PM</t>
+    <t>Friday, 18 July, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3148,7 +3160,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3191,11 +3203,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3273,14 +3285,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3290,11 +3302,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3306,14 +3318,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3323,14 +3335,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3356,14 +3368,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3379,7 +3391,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3396,7 +3408,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3422,14 +3434,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>103</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3488,14 +3500,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3537,7 +3549,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3550,18 +3562,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3570,7 +3582,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3583,18 +3595,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3603,14 +3615,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3620,14 +3632,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3636,14 +3648,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3653,11 +3665,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3686,14 +3698,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3702,7 +3714,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3719,14 +3731,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3735,7 +3747,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3752,11 +3764,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>100</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3768,14 +3780,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3785,14 +3797,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3801,14 +3813,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>29</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3818,14 +3830,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3841,7 +3853,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>57</v>
+        <v>212</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3851,11 +3863,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3884,14 +3896,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3917,11 +3929,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>21</v>
@@ -3933,14 +3945,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3950,11 +3962,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>21</v>
@@ -3966,7 +3978,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3983,11 +3995,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>103</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -3999,7 +4011,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -4016,11 +4028,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4032,7 +4044,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4049,14 +4061,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4065,14 +4077,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4082,14 +4094,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4098,14 +4110,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4115,14 +4127,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4131,14 +4143,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4148,14 +4160,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4164,28 +4176,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4197,31 +4209,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4230,14 +4242,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4247,14 +4259,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4263,7 +4275,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4280,14 +4292,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4296,14 +4308,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4313,14 +4325,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4329,14 +4341,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4346,14 +4358,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>73</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4369,7 +4381,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4379,14 +4391,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4395,14 +4407,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4412,14 +4424,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4428,14 +4440,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4445,14 +4457,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>62</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4461,14 +4473,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4478,11 +4490,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4494,14 +4506,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4511,14 +4523,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4527,14 +4539,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4544,14 +4556,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>37</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4560,14 +4572,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4577,14 +4589,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4593,14 +4605,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4610,11 +4622,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4626,14 +4638,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4643,11 +4655,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>30</v>
+        <v>273</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>31</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4659,14 +4671,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4676,14 +4688,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>274</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4692,14 +4704,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4709,11 +4721,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>21</v>
@@ -4725,14 +4737,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4742,11 +4754,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>21</v>
@@ -4758,7 +4770,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4775,14 +4787,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4791,14 +4803,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4808,14 +4820,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4824,14 +4836,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4841,11 +4853,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>21</v>
@@ -4857,14 +4869,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4874,14 +4886,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4890,14 +4902,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4907,14 +4919,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4923,14 +4935,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4940,14 +4952,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>293</v>
+        <v>30</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4963,7 +4975,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>21</v>
+        <v>296</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4973,14 +4985,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>145</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4989,28 +5001,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>21</v>
@@ -5022,14 +5034,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5076,7 +5088,7 @@
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5088,14 +5100,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5105,11 +5117,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5121,14 +5133,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>309</v>
+        <v>50</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5138,11 +5150,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>311</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5161,7 +5173,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5171,14 +5183,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>104</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>313</v>
+        <v>21</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5187,7 +5199,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5204,14 +5216,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>316</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>50</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5220,7 +5232,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5237,14 +5249,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5253,14 +5265,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5270,11 +5282,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>21</v>
@@ -5286,14 +5298,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>50</v>
+        <v>323</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5303,11 +5315,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>21</v>
@@ -5319,14 +5331,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5336,14 +5348,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5352,14 +5364,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5369,14 +5381,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5385,14 +5397,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5413,38 +5425,71 @@
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6921.2150000000001</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>326</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
-        <v>327</v>
-      </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
-        <v>328</v>
-      </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>329</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>76</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>13</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>135</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6942.9949999999999</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
+        <v>330</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>331</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>332</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6028,10 +6073,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -371,6 +371,12 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>ELICA-M CREAM 30 GRAM</t>
   </si>
   <si>
@@ -392,9 +398,6 @@
     <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
-    <t>78.0000</t>
-  </si>
-  <si>
     <t>ERASTAPEX PLUS 40MG/12.5MG 30 TAB</t>
   </si>
   <si>
@@ -461,6 +464,9 @@
     <t>53.4400</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 15 GM</t>
+  </si>
+  <si>
     <t>GABAVERONA 300MG CAPS</t>
   </si>
   <si>
@@ -899,15 +905,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8531:0</t>
+    <t>8529:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
@@ -1001,7 +1004,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:39 PM</t>
+    <t>Friday, 18 July, 2025 11:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2731,7 +2734,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2741,11 +2744,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2757,28 +2760,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2790,7 +2793,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2803,11 +2806,11 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2840,11 +2843,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2873,14 +2876,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2889,14 +2892,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2906,14 +2909,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2922,14 +2925,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2939,14 +2942,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2955,14 +2958,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3038,14 +3041,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3054,28 +3057,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3104,11 +3107,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -3120,7 +3123,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3133,15 +3136,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3186,14 +3189,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3203,14 +3206,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3219,14 +3222,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3236,14 +3239,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3285,14 +3288,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3335,14 +3338,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3384,7 +3387,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3500,11 +3503,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3523,7 +3526,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3533,11 +3536,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>188</v>
+        <v>103</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3582,28 +3585,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3615,7 +3618,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3648,28 +3651,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3681,14 +3684,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3714,14 +3717,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3731,14 +3734,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>125</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3764,11 +3767,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3780,7 +3783,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3813,14 +3816,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3830,14 +3833,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3846,14 +3849,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3863,11 +3866,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3929,14 +3932,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3995,11 +3998,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>21</v>
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>21</v>
@@ -4044,7 +4047,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>21</v>
@@ -4077,7 +4080,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4127,11 +4130,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>21</v>
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4160,11 +4163,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4193,11 +4196,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>73</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>21</v>
@@ -4209,31 +4212,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>166</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4249,7 +4252,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>212</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4259,14 +4262,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>70</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4275,7 +4278,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4288,15 +4291,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>21</v>
@@ -4308,14 +4311,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4325,14 +4328,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>145</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4358,11 +4361,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>73</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>21</v>
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4391,11 +4394,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4424,11 +4427,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>21</v>
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4457,11 +4460,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>62</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4490,11 +4493,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>21</v>
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4523,14 +4526,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>62</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4539,14 +4542,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4556,14 +4559,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>37</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4572,7 +4575,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4589,11 +4592,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>21</v>
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4622,14 +4625,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>270</v>
+        <v>37</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4655,14 +4658,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4671,14 +4674,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4688,11 +4691,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4721,14 +4724,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4754,14 +4757,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4787,11 +4790,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>21</v>
@@ -4803,14 +4806,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4820,14 +4823,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4853,7 +4856,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4869,14 +4872,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4886,14 +4889,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>142</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4902,14 +4905,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4919,14 +4922,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4935,14 +4938,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4952,14 +4955,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4968,14 +4971,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4985,14 +4988,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5001,14 +5004,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5018,14 +5021,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5034,31 +5037,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>76</v>
+        <v>298</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>303</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5067,28 +5070,28 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>21</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>146</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>21</v>
@@ -5100,14 +5103,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5117,11 +5120,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>189</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>21</v>
@@ -5133,14 +5136,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>50</v>
+        <v>306</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5150,11 +5153,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>21</v>
@@ -5166,14 +5169,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5183,11 +5186,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>315</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>21</v>
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5216,14 +5219,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>317</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5232,14 +5235,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5249,14 +5252,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5265,7 +5268,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5282,14 +5285,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>21</v>
+        <v>318</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5298,14 +5301,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5315,14 +5318,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5331,14 +5334,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5348,11 +5351,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>21</v>
@@ -5364,14 +5367,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5381,14 +5384,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5397,14 +5400,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5414,11 +5417,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>21</v>
@@ -5430,14 +5433,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5447,49 +5450,115 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>329</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>21</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>13</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>136</v>
       </c>
-      <c t="s" r="Q122" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6942.9949999999999</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
         <v>330</v>
       </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>76</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>13</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>136</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7068.9949999999999</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
         <v>331</v>
       </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
         <v>332</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>333</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6078,10 +6147,20 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -62,21 +62,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ACRO CREAM 75 GM</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>66.95</t>
   </si>
   <si>
     <t>66.9500</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALKAPRESS 5MG 20 TAB.</t>
   </si>
   <si>
@@ -584,9 +596,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>L-CARNITINE PLUS 20 F.C. TAB</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
     <t>116.0000</t>
   </si>
   <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>LEZBERG TRIO 40/10/25MG TAB</t>
   </si>
   <si>
@@ -917,6 +935,15 @@
     <t>34.0000</t>
   </si>
   <si>
+    <t>XITHRONE 200 MG/5ML SUSP. 25 ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">اختبار حمل بيبي تشك </t>
   </si>
   <si>
@@ -944,9 +971,6 @@
     <t>10:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">زيت SUNSILK جوز هند 250 مل </t>
   </si>
   <si>
@@ -1004,7 +1028,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:43 PM</t>
+    <t>Friday, 18 July, 2025 11:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1678,24 +1702,24 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1704,7 +1728,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1717,18 +1741,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1737,31 +1761,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1770,20 +1794,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1810,24 +1834,24 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1836,20 +1860,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1860,7 +1884,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1876,24 +1900,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1902,31 +1926,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1935,28 +1959,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1968,20 +1992,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1992,7 +2016,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2001,20 +2025,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -2025,7 +2049,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2041,24 +2065,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2067,20 +2091,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -2091,7 +2115,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2113,7 +2137,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -2124,7 +2148,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2133,20 +2157,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -2157,7 +2181,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2166,31 +2190,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2206,13 +2230,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -2223,7 +2247,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2232,20 +2256,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2253,10 +2277,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2265,31 +2289,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2298,31 +2322,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2331,31 +2355,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2364,31 +2388,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2397,31 +2421,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2430,31 +2454,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2470,24 +2494,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2496,20 +2520,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2536,24 +2560,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2562,20 +2586,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2586,7 +2610,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2602,21 +2626,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2628,31 +2652,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2661,31 +2685,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2694,20 +2718,20 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2715,10 +2739,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2727,31 +2751,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2760,31 +2784,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2793,31 +2817,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2826,7 +2850,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2839,18 +2863,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2859,7 +2883,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2872,18 +2896,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2892,31 +2916,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2925,31 +2949,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2958,31 +2982,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2991,31 +3015,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3024,20 +3048,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3048,7 +3072,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3064,24 +3088,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3090,31 +3114,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3123,31 +3147,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3156,31 +3180,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3189,31 +3213,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3222,20 +3246,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3262,24 +3286,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3288,31 +3312,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3321,31 +3345,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3354,31 +3378,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3387,31 +3411,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3420,31 +3444,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3453,31 +3477,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>183</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3493,13 +3517,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3510,7 +3534,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3519,31 +3543,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3552,31 +3576,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3585,31 +3609,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3618,31 +3642,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3664,7 +3688,7 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3675,7 +3699,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3691,24 +3715,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3717,28 +3741,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3750,31 +3774,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3783,31 +3807,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3816,28 +3840,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3849,7 +3873,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3862,18 +3886,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3882,31 +3906,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3915,20 +3939,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3955,24 +3979,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3981,20 +4005,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -4005,7 +4029,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4021,13 +4045,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -4038,7 +4062,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4054,24 +4078,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>103</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>104</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4080,31 +4104,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4113,31 +4137,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4153,24 +4177,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4179,31 +4203,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4212,24 +4236,24 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>123</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4252,24 +4276,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>73</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4278,31 +4302,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4311,31 +4335,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>77</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4344,7 +4368,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4357,18 +4381,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4377,31 +4401,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4410,31 +4434,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4443,24 +4467,24 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4483,24 +4507,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4516,21 +4540,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>90</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4542,31 +4566,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4575,31 +4599,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4615,24 +4639,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4641,7 +4665,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4654,18 +4678,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4674,31 +4698,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4714,13 +4738,13 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4731,7 +4755,7 @@
         <v>276</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4747,21 +4771,21 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>31</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4773,31 +4797,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4806,31 +4830,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4846,13 +4870,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4863,7 +4887,7 @@
         <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4879,24 +4903,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>71</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4905,31 +4929,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4938,31 +4962,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>143</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4971,31 +4995,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>133</v>
+        <v>296</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5004,31 +5028,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5037,31 +5061,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>83</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5070,31 +5094,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5103,31 +5127,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5136,31 +5160,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>22</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5169,31 +5193,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5202,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5219,14 +5243,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5235,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5252,14 +5276,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5268,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5285,14 +5309,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>299</v>
+        <v>20</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>318</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5301,14 +5325,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5318,14 +5342,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5334,14 +5358,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5351,14 +5375,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5367,14 +5391,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5384,14 +5408,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>304</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>21</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5400,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5417,14 +5441,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5433,7 +5457,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5450,14 +5474,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>328</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5466,14 +5490,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>21</v>
+        <v>332</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5483,14 +5507,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>136</v>
+        <v>312</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>137</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5499,14 +5523,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5516,49 +5540,148 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>136</v>
+        <v>334</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7068.9949999999999</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>331</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>332</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>333</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>335</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>12</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>13</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>20</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>336</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>337</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>22</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>13</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>140</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>338</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>80</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>13</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>140</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="P128" s="13">
+        <v>7211.9949999999999</v>
+      </c>
+      <c r="Q128" s="13"/>
+    </row>
+    <row r="129" ht="16.5" customHeight="1">
+      <c t="s" r="A129" s="14">
+        <v>339</v>
+      </c>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c t="s" r="G129" s="15">
+        <v>340</v>
+      </c>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c t="s" r="K129" s="17">
+        <v>341</v>
+      </c>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="617">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6157,10 +6280,25 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="P128:Q128"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="G129:I129"/>
+    <mergeCell ref="K129:Q129"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -1028,7 +1028,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:44 PM</t>
+    <t>Friday, 18 July, 2025 11:48 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -1028,7 +1028,7 @@
     <t>معجون اسنان ديبرودنت 13 مل</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 11:48 PM</t>
+    <t>Friday, 18 July, 2025 11:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-18_00-00.xlsx
+++ b/DaySale_2025-07-18_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 19 July, 2025 12:01 AM</t>
+    <t>Saturday, 19 July, 2025 12:02 AM</t>
   </si>
   <si>
     <t>1/1</t>
